--- a/BOM_SI_Board_Reman.xlsx
+++ b/BOM_SI_Board_Reman.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\Privat\E30\SI_Board_Reman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF7D5D5-A05B-4515-A98B-1252EE13357B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA68AFC9-7EFF-499E-9796-D50134339FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="30960" windowHeight="12204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-192" yWindow="-192" windowWidth="41664" windowHeight="17064" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_V1+V2" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={67B77BD2-9664-4149-AB22-CA09F97CDC6D}</author>
+  </authors>
+  <commentList>
+    <comment ref="F59" authorId="0" shapeId="0" xr:uid="{67B77BD2-9664-4149-AB22-CA09F97CDC6D}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Optional socket</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="301">
   <si>
     <t>Item #</t>
   </si>
@@ -843,6 +861,156 @@
   <si>
     <t>Changes compared to V1/V2</t>
   </si>
+  <si>
+    <t>BAV-21</t>
+  </si>
+  <si>
+    <t>594-K102K15X7RH5TH5</t>
+  </si>
+  <si>
+    <t>81-RDER73A473K4M1H3A</t>
+  </si>
+  <si>
+    <t>594-2222-138-35101</t>
+  </si>
+  <si>
+    <t>594-2222-138-21101</t>
+  </si>
+  <si>
+    <t>649-1012937890304BLF</t>
+  </si>
+  <si>
+    <t>710-61301311121</t>
+  </si>
+  <si>
+    <t>511-BAT46</t>
+  </si>
+  <si>
+    <t>637-BAV21</t>
+  </si>
+  <si>
+    <t>710-151031VS06000</t>
+  </si>
+  <si>
+    <t>637-BC547C</t>
+  </si>
+  <si>
+    <t>637-BC337-25</t>
+  </si>
+  <si>
+    <t>637-BC327-16</t>
+  </si>
+  <si>
+    <t>MBE04140C1209DC100</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-825R</t>
+  </si>
+  <si>
+    <t>603-MFR-25FBF52-1K65</t>
+  </si>
+  <si>
+    <t>603-MF0207FRE52-3K32</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-6K65</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-13K3</t>
+  </si>
+  <si>
+    <t>603-MFR-25FRF52-7K15</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-3K57</t>
+  </si>
+  <si>
+    <t>603-MFR-25FBF52-1K78</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-887R</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-64K9</t>
+  </si>
+  <si>
+    <t>603-MF0207FRE52-1K</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-35K7</t>
+  </si>
+  <si>
+    <t>603-MF0207FRE52-470K</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-16K2</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-43K2</t>
+  </si>
+  <si>
+    <t>603-MF0207FRE52-4K75</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-51K</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-24K9</t>
+  </si>
+  <si>
+    <t>603-MF0207FRE52-100R</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-56K2</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-12K1</t>
+  </si>
+  <si>
+    <t>603-MF0207FRE52-2K7</t>
+  </si>
+  <si>
+    <t>603-MF0207FRE52-10K</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-16K</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-75R</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-5K6</t>
+  </si>
+  <si>
+    <t>603-MFR50SFTE52-160R</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE52-1K3</t>
+  </si>
+  <si>
+    <t>603-MF0207FRE52-4K7</t>
+  </si>
+  <si>
+    <t>603-MF0207FTE26-10R</t>
+  </si>
+  <si>
+    <t>Pitch [mm]</t>
+  </si>
+  <si>
+    <t>17,78 / 12,7</t>
+  </si>
+  <si>
+    <t>20,32 / 10,16</t>
+  </si>
+  <si>
+    <t>10,16 / 15,24</t>
+  </si>
+  <si>
+    <t>10,16 / 10,16 / 7,62 / 10,16</t>
+  </si>
+  <si>
+    <t>10,16 / 12,7</t>
+  </si>
 </sst>
 </file>
 
@@ -950,17 +1118,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.14999847407452621"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1132,7 +1299,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1313,19 +1480,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1340,16 +1495,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1358,33 +1507,26 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1399,61 +1541,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1477,7 +1601,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1489,7 +1613,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1498,14 +1622,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1531,21 +1649,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1555,10 +1658,73 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1566,7 +1732,48 @@
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="39">
+    <dxf>
+      <alignment horizontal="left" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1602,6 +1809,176 @@
         </top>
         <bottom style="thin">
           <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
         </bottom>
       </border>
     </dxf>
@@ -1913,221 +2290,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -2154,6 +2316,13 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -17058,32 +17227,38 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Fabian Gmeiner" id="{0A7B646F-89F1-4CF6-A62E-0EE413C8C9D0}" userId="S::Fabian.Gmeiner@bwedu.de::42aa5b9a-a8d0-46bb-8a96-4def85995f39" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{86DBA624-B170-41D5-A902-5BDBAC10F478}" name="Tabelle1" displayName="Tabelle1" ref="A7:O69" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{86DBA624-B170-41D5-A902-5BDBAC10F478}" name="Tabelle1" displayName="Tabelle1" ref="A7:O69" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35">
   <autoFilter ref="A7:O69" xr:uid="{86DBA624-B170-41D5-A902-5BDBAC10F478}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:M65">
     <sortCondition ref="A7:A65"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{D6A26CF4-D2CB-43FF-8EB3-64C29CDBD3E2}" name="Item #" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{045D7A26-7C39-4ED9-B332-A37557BA76A0}" name="*Designator" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{29BF180C-61BA-468F-8977-1B4C1513EFEA}" name="*Qty" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{D730D8EF-DBB0-4D62-A82C-261EBC205435}" name="Manufacturer" dataDxfId="30"/>
-    <tableColumn id="15" xr3:uid="{3A49C612-D46D-444F-BB21-2EECAE70D1C2}" name="Qty. for 10 boards" dataDxfId="29">
+    <tableColumn id="1" xr3:uid="{D6A26CF4-D2CB-43FF-8EB3-64C29CDBD3E2}" name="Item #" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{045D7A26-7C39-4ED9-B332-A37557BA76A0}" name="*Designator" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{29BF180C-61BA-468F-8977-1B4C1513EFEA}" name="*Qty" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{D730D8EF-DBB0-4D62-A82C-261EBC205435}" name="Manufacturer" dataDxfId="31"/>
+    <tableColumn id="15" xr3:uid="{3A49C612-D46D-444F-BB21-2EECAE70D1C2}" name="Qty. for 10 boards" dataDxfId="30">
       <calculatedColumnFormula>Tabelle1[[#This Row],[*Qty]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{10C8DE7A-F706-4854-814C-248F6E31976E}" name="Description / Value" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{3CC4FAD6-3FE6-473D-BCE8-2BA7BCC043A2}" name="*Package/Footprint " dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{16C00195-5A2C-45A4-8DA8-A08A72594DDD}" name="Type" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{7C64F7D4-4C75-47FB-B395-307D3B96B25D}" name="Your Instructions / Notes" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{D81A2188-7107-424B-ABFD-F5A26EC04C8B}" name="Mouser Nr." dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{026EEABE-BF3D-4B76-A8BE-2DAF20FFEB0D}" name="Mouser Unit Price" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{E9DDAD84-A0E6-463A-8494-293B9C20BB9E}" name="Mouser Total Price" dataDxfId="22">
+    <tableColumn id="6" xr3:uid="{10C8DE7A-F706-4854-814C-248F6E31976E}" name="Description / Value" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{3CC4FAD6-3FE6-473D-BCE8-2BA7BCC043A2}" name="*Package/Footprint " dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{16C00195-5A2C-45A4-8DA8-A08A72594DDD}" name="Type" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{7C64F7D4-4C75-47FB-B395-307D3B96B25D}" name="Your Instructions / Notes" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{D81A2188-7107-424B-ABFD-F5A26EC04C8B}" name="Mouser Nr." dataDxfId="25"/>
+    <tableColumn id="12" xr3:uid="{026EEABE-BF3D-4B76-A8BE-2DAF20FFEB0D}" name="Mouser Unit Price" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{E9DDAD84-A0E6-463A-8494-293B9C20BB9E}" name="Mouser Total Price" dataDxfId="23">
       <calculatedColumnFormula>Tabelle1[[#This Row],[*Qty]]*Tabelle1[[#This Row],[Mouser Unit Price]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3452C57B-B09C-433A-9093-2C7B33182EFC}" name="Reichelt Nr." dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{3B8930EF-7778-457F-86BE-CD8B1B3F6ACF}" name="Reichelt Unit Price" dataDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{6563D385-E9F4-47F7-AB7F-8F3572466A58}" name="Reichelt Total Price" dataDxfId="19">
+    <tableColumn id="10" xr3:uid="{3452C57B-B09C-433A-9093-2C7B33182EFC}" name="Reichelt Nr." dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{3B8930EF-7778-457F-86BE-CD8B1B3F6ACF}" name="Reichelt Unit Price" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{6563D385-E9F4-47F7-AB7F-8F3572466A58}" name="Reichelt Total Price" dataDxfId="20">
       <calculatedColumnFormula>Tabelle1[[#This Row],[*Qty]]*Tabelle1[[#This Row],[Reichelt Unit Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17092,31 +17267,32 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DE186EED-54BF-43F4-AE7F-7C5442342E0F}" name="Tabelle13" displayName="Tabelle13" ref="A7:O70" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
-  <autoFilter ref="A7:O70" xr:uid="{86DBA624-B170-41D5-A902-5BDBAC10F478}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:M65">
-    <sortCondition ref="A7:A65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DE186EED-54BF-43F4-AE7F-7C5442342E0F}" name="Tabelle13" displayName="Tabelle13" ref="A7:P67" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+  <autoFilter ref="A7:P67" xr:uid="{86DBA624-B170-41D5-A902-5BDBAC10F478}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:N63">
+    <sortCondition ref="A7:A63"/>
   </sortState>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{0C17E2A0-DA66-40A1-9FD7-07A90013BBC9}" name="Item #" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{025B9513-D1AB-4DCE-BB4D-B6B31B0AEB8D}" name="*Designator" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{7EDA20A5-D7D9-44E1-A4C5-65C9FA6962D9}" name="*Qty" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{F2DA1D1F-D23C-4454-BF2A-D6E097F12B18}" name="Manufacturer" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{AA84C98D-F06B-4AC3-BC18-CC9674F3DEEF}" name="Qty. for 10 boards" dataDxfId="4">
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{0C17E2A0-DA66-40A1-9FD7-07A90013BBC9}" name="Item #" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{025B9513-D1AB-4DCE-BB4D-B6B31B0AEB8D}" name="*Designator" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{7EDA20A5-D7D9-44E1-A4C5-65C9FA6962D9}" name="*Qty" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{F2DA1D1F-D23C-4454-BF2A-D6E097F12B18}" name="Manufacturer" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{AA84C98D-F06B-4AC3-BC18-CC9674F3DEEF}" name="Qty. for 10 boards" dataDxfId="11">
       <calculatedColumnFormula>Tabelle13[[#This Row],[*Qty]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9A3E16E6-7140-4D81-A594-C85CB2E7D41B}" name="Description / Value" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{F51A1420-E0BD-437E-89DA-0CB7A7ABD04E}" name="*Package/Footprint " dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{1183CBE0-189A-4953-A7AB-F6BF7649F577}" name="Type" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{18FA605C-64E6-4FBE-A3F4-C7CA4E8A63E0}" name="Your Instructions / Notes" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{62FAB940-342C-45CA-A72E-A506E1515406}" name="Mouser Nr." dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{993AD229-67E1-465E-8B1F-4E1761638354}" name="Mouser Unit Price" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{8322B907-9393-49A0-B468-B8F8B3025E0D}" name="Mouser Total Price" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{9A3E16E6-7140-4D81-A594-C85CB2E7D41B}" name="Description / Value" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{F51A1420-E0BD-437E-89DA-0CB7A7ABD04E}" name="*Package/Footprint " dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{1183CBE0-189A-4953-A7AB-F6BF7649F577}" name="Type" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{18FA605C-64E6-4FBE-A3F4-C7CA4E8A63E0}" name="Your Instructions / Notes" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{B7888AE7-6C7B-40A9-9C8F-C81FE7DF99BF}" name="Pitch [mm]" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{62FAB940-342C-45CA-A72E-A506E1515406}" name="Mouser Nr." dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{993AD229-67E1-465E-8B1F-4E1761638354}" name="Mouser Unit Price" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{8322B907-9393-49A0-B468-B8F8B3025E0D}" name="Mouser Total Price" dataDxfId="6">
       <calculatedColumnFormula>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D6E6B158-BD51-4092-B60B-B145D4D527DB}" name="Reichelt Nr." dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{77816816-BC14-4B8D-9F8F-BE6FA3010466}" name="Reichelt Unit Price" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{546D4A0D-5F18-425E-B9C8-532BE30C3F13}" name="Reichelt Total Price" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{D6E6B158-BD51-4092-B60B-B145D4D527DB}" name="Reichelt Nr." dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{77816816-BC14-4B8D-9F8F-BE6FA3010466}" name="Reichelt Unit Price" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{546D4A0D-5F18-425E-B9C8-532BE30C3F13}" name="Reichelt Total Price" dataDxfId="3">
       <calculatedColumnFormula>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17407,6 +17583,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F59" dT="2024-08-18T18:42:07.54" personId="{0A7B646F-89F1-4CF6-A62E-0EE413C8C9D0}" id="{67B77BD2-9664-4149-AB22-CA09F97CDC6D}">
+    <text>Optional socket</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:DR69"/>
@@ -17436,30 +17620,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" ht="19.5" customHeight="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="64" t="s">
+      <c r="A2" s="127"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
     </row>
     <row r="3" spans="1:30" ht="14.4" thickBot="1">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="A3" s="127"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
       <c r="K4" s="44" t="s">
         <v>219</v>
       </c>
@@ -17467,7 +17651,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="14.4" thickBot="1">
+    <row r="5" spans="1:30" ht="15" thickBot="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -17475,13 +17659,13 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="J5" s="43"/>
-      <c r="K5" s="75">
+      <c r="K5" s="69">
         <f>SUM(L8:L69)</f>
         <v>6.4660000000000002</v>
       </c>
       <c r="L5" s="43"/>
       <c r="M5" s="43"/>
-      <c r="N5" s="75">
+      <c r="N5" s="69">
         <f>SUM(O8:O69)</f>
         <v>4.0549999999999988</v>
       </c>
@@ -23856,12 +24040,12 @@
       <c r="E63" s="46">
         <v>20</v>
       </c>
-      <c r="F63" s="78" t="s">
+      <c r="F63" s="72" t="s">
         <v>232</v>
       </c>
       <c r="G63" s="32"/>
       <c r="H63" s="15"/>
-      <c r="I63" s="77" t="s">
+      <c r="I63" s="71" t="s">
         <v>231</v>
       </c>
       <c r="J63" s="61"/>
@@ -24546,21 +24730,21 @@
       <c r="DR67" s="1"/>
     </row>
     <row r="68" spans="1:122">
-      <c r="A68" s="69"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="71"/>
-      <c r="J68" s="73"/>
-      <c r="K68" s="73"/>
-      <c r="L68" s="68"/>
-      <c r="M68" s="73"/>
-      <c r="N68" s="73"/>
-      <c r="O68" s="74"/>
+      <c r="A68" s="65"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="67"/>
+      <c r="K68" s="67"/>
+      <c r="L68" s="64"/>
+      <c r="M68" s="67"/>
+      <c r="N68" s="67"/>
+      <c r="O68" s="67"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
@@ -24573,21 +24757,21 @@
       <c r="Y68" s="7"/>
     </row>
     <row r="69" spans="1:122">
-      <c r="A69" s="69"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="72"/>
-      <c r="H69" s="71"/>
-      <c r="I69" s="71"/>
-      <c r="J69" s="73"/>
-      <c r="K69" s="73"/>
-      <c r="L69" s="76"/>
-      <c r="M69" s="73"/>
-      <c r="N69" s="73"/>
-      <c r="O69" s="74"/>
+      <c r="A69" s="65"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="67"/>
+      <c r="K69" s="67"/>
+      <c r="L69" s="70"/>
+      <c r="M69" s="67"/>
+      <c r="N69" s="67"/>
+      <c r="O69" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -24608,11 +24792,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C2FD82-81EB-4436-871C-7AF9F8047BCA}">
-  <dimension ref="A1:DR71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C2FD82-81EB-4436-871C-7AF9F8047BCA}">
+  <dimension ref="A1:DS67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -24623,84 +24807,86 @@
     <col min="4" max="4" width="43.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="16.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="48.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="28.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="14.4" thickBot="1"/>
-    <row r="2" spans="1:30" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="64" t="s">
+    <row r="1" spans="1:31" ht="14.4" thickBot="1"/>
+    <row r="2" spans="1:31" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A2" s="127"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="H2" s="146" t="s">
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="H2" s="128" t="s">
         <v>250</v>
       </c>
-      <c r="I2" s="147"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="146"/>
     </row>
-    <row r="3" spans="1:30" ht="14.4" thickBot="1">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+    <row r="3" spans="1:31" ht="14.4" thickBot="1">
+      <c r="A3" s="127"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
     </row>
-    <row r="4" spans="1:30">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="K4" s="44" t="s">
+    <row r="4" spans="1:31">
+      <c r="A4" s="127"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="L4" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="N4" s="44" t="s">
+      <c r="O4" s="44" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" thickBot="1">
+    <row r="5" spans="1:31" ht="15" thickBot="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="75">
-        <f>SUM(L8:L70)</f>
-        <v>7.7119999999999997</v>
-      </c>
-      <c r="L5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="69">
+        <f>SUM(M8:M67)</f>
+        <v>25.998999999999999</v>
+      </c>
       <c r="M5" s="43"/>
-      <c r="N5" s="75">
-        <f>SUM(O8:O70)</f>
-        <v>4.25</v>
+      <c r="N5" s="43"/>
+      <c r="O5" s="69">
+        <f>SUM(P8:P67)</f>
+        <v>4.2299999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="B6" s="7" t="s">
         <v>148</v>
       </c>
       <c r="C6" s="9">
         <f>SUM(Tabelle13[*Qty])</f>
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="28.5" customHeight="1">
+    <row r="7" spans="1:31" ht="28.5" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -24729,61 +24915,73 @@
         <v>7</v>
       </c>
       <c r="J7" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="L7" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="M7" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="N7" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="N7" s="35" t="s">
+      <c r="O7" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="O7" s="35" t="s">
+      <c r="P7" s="35" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
-      <c r="A8" s="80">
+    <row r="8" spans="1:31">
+      <c r="A8" s="73">
         <v>1</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="80">
+      <c r="C8" s="73">
         <v>1</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="82">
+      <c r="D8" s="74"/>
+      <c r="E8" s="75">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50" t="s">
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="133">
+        <v>10.16</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="L8" s="50">
+        <v>0.112</v>
+      </c>
+      <c r="M8" s="50">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.112</v>
+      </c>
+      <c r="N8" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="N8" s="51">
+      <c r="O8" s="51">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O8" s="51">
+      <c r="P8" s="51">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
@@ -24798,44 +24996,54 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
     </row>
-    <row r="9" spans="1:30">
-      <c r="A9" s="80">
+    <row r="9" spans="1:31">
+      <c r="A9" s="73">
         <v>2</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C9" s="73">
         <v>1</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="82">
+      <c r="D9" s="74"/>
+      <c r="E9" s="75">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F9" s="83" t="s">
+      <c r="F9" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52" t="s">
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="133">
+        <v>10.16</v>
+      </c>
+      <c r="K9" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="L9" s="52">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="M9" s="52">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="N9" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="N9" s="51">
+      <c r="O9" s="51">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O9" s="53">
+      <c r="P9" s="53">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
@@ -24850,44 +25058,54 @@
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
     </row>
-    <row r="10" spans="1:30">
-      <c r="A10" s="80">
+    <row r="10" spans="1:31">
+      <c r="A10" s="73">
         <v>3</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="80">
+      <c r="C10" s="73">
         <v>1</v>
       </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="82">
+      <c r="D10" s="74"/>
+      <c r="E10" s="75">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F10" s="83" t="s">
+      <c r="F10" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="86" t="s">
+      <c r="G10" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52" t="s">
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="133">
+        <v>10.16</v>
+      </c>
+      <c r="K10" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="L10" s="52">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="M10" s="52">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="N10" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="N10" s="51">
+      <c r="O10" s="51">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O10" s="53">
+      <c r="P10" s="53">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
@@ -24902,44 +25120,54 @@
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
     </row>
-    <row r="11" spans="1:30">
-      <c r="A11" s="80">
+    <row r="11" spans="1:31">
+      <c r="A11" s="73">
         <v>4</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="80">
+      <c r="C11" s="73">
         <v>1</v>
       </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="82">
+      <c r="D11" s="74"/>
+      <c r="E11" s="75">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F11" s="83" t="s">
+      <c r="F11" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="86" t="s">
+      <c r="G11" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52" t="s">
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="133">
+        <v>10.16</v>
+      </c>
+      <c r="K11" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="L11" s="52">
+        <v>0.112</v>
+      </c>
+      <c r="M11" s="52">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.112</v>
+      </c>
+      <c r="N11" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="N11" s="51">
+      <c r="O11" s="51">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O11" s="53">
+      <c r="P11" s="53">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -24954,44 +25182,54 @@
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
     </row>
-    <row r="12" spans="1:30">
-      <c r="A12" s="80">
+    <row r="12" spans="1:31">
+      <c r="A12" s="73">
         <v>5</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="80">
+      <c r="C12" s="73">
         <v>1</v>
       </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="82">
+      <c r="D12" s="74"/>
+      <c r="E12" s="75">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="86" t="s">
+      <c r="G12" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52" t="s">
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="133">
+        <v>10.16</v>
+      </c>
+      <c r="K12" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="L12" s="52">
+        <v>0.112</v>
+      </c>
+      <c r="M12" s="52">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.112</v>
+      </c>
+      <c r="N12" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="N12" s="51">
+      <c r="O12" s="51">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O12" s="53">
+      <c r="P12" s="53">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
@@ -25006,44 +25244,54 @@
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
     </row>
-    <row r="13" spans="1:30">
-      <c r="A13" s="80">
+    <row r="13" spans="1:31">
+      <c r="A13" s="73">
         <v>6</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="80">
+      <c r="C13" s="73">
         <v>1</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82">
+      <c r="D13" s="74"/>
+      <c r="E13" s="75">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F13" s="83" t="s">
+      <c r="F13" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="86" t="s">
+      <c r="G13" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52" t="s">
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="133">
+        <v>10.16</v>
+      </c>
+      <c r="K13" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="L13" s="52">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="M13" s="52">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="N13" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="N13" s="53">
+      <c r="O13" s="53">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O13" s="53">
+      <c r="P13" s="53">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
@@ -25058,44 +25306,54 @@
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
     </row>
-    <row r="14" spans="1:30">
-      <c r="A14" s="80">
+    <row r="14" spans="1:31">
+      <c r="A14" s="73">
         <v>7</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="80">
+      <c r="C14" s="73">
         <v>1</v>
       </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="82">
+      <c r="D14" s="74"/>
+      <c r="E14" s="75">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F14" s="83" t="s">
+      <c r="F14" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="86" t="s">
+      <c r="G14" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52" t="s">
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="133">
+        <v>10.16</v>
+      </c>
+      <c r="K14" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="L14" s="52">
+        <v>0.112</v>
+      </c>
+      <c r="M14" s="52">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.112</v>
+      </c>
+      <c r="N14" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="N14" s="53">
+      <c r="O14" s="53">
         <v>0.06</v>
       </c>
-      <c r="O14" s="53">
+      <c r="P14" s="53">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>0.06</v>
       </c>
-      <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -25110,44 +25368,54 @@
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
     </row>
-    <row r="15" spans="1:30">
-      <c r="A15" s="80">
+    <row r="15" spans="1:31">
+      <c r="A15" s="73">
         <v>8</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="80">
+      <c r="C15" s="73">
         <v>1</v>
       </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="82">
+      <c r="D15" s="74"/>
+      <c r="E15" s="75">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F15" s="81" t="s">
+      <c r="F15" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="86" t="s">
+      <c r="G15" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52" t="s">
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="133">
+        <v>10.16</v>
+      </c>
+      <c r="K15" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="L15" s="52">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="M15" s="52">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="N15" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="N15" s="53">
+      <c r="O15" s="53">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O15" s="53">
+      <c r="P15" s="53">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
@@ -25162,44 +25430,54 @@
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
     </row>
-    <row r="16" spans="1:30">
-      <c r="A16" s="80">
+    <row r="16" spans="1:31">
+      <c r="A16" s="73">
         <v>9</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="80">
+      <c r="C16" s="73">
         <v>1</v>
       </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="82">
+      <c r="D16" s="74"/>
+      <c r="E16" s="75">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F16" s="81" t="s">
+      <c r="F16" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="86" t="s">
+      <c r="G16" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52" t="s">
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="133">
+        <v>10.16</v>
+      </c>
+      <c r="K16" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="L16" s="52">
+        <v>0.112</v>
+      </c>
+      <c r="M16" s="52">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.112</v>
+      </c>
+      <c r="N16" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="N16" s="53">
+      <c r="O16" s="53">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O16" s="53">
+      <c r="P16" s="53">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -25214,44 +25492,54 @@
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
     </row>
-    <row r="17" spans="1:122">
-      <c r="A17" s="80">
+    <row r="17" spans="1:123">
+      <c r="A17" s="73">
         <v>10</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="80">
+      <c r="C17" s="73">
         <v>1</v>
       </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="82">
+      <c r="D17" s="74"/>
+      <c r="E17" s="75">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F17" s="81" t="s">
+      <c r="F17" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="86" t="s">
+      <c r="G17" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52" t="s">
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="74">
+        <v>12.7</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="L17" s="52">
+        <v>0.112</v>
+      </c>
+      <c r="M17" s="52">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.112</v>
+      </c>
+      <c r="N17" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="N17" s="53">
+      <c r="O17" s="53">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O17" s="53">
+      <c r="P17" s="53">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
@@ -25266,43 +25554,53 @@
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
       <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
     </row>
-    <row r="18" spans="1:122">
-      <c r="A18" s="80">
+    <row r="18" spans="1:123">
+      <c r="A18" s="73">
         <v>11</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="C18" s="80">
+      <c r="C18" s="73">
         <v>2</v>
       </c>
-      <c r="D18" s="81"/>
-      <c r="E18" s="82">
+      <c r="D18" s="74"/>
+      <c r="E18" s="75">
         <v>10</v>
       </c>
-      <c r="F18" s="81" t="s">
+      <c r="F18" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="86" t="s">
+      <c r="G18" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52" t="s">
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="76" t="s">
+        <v>296</v>
+      </c>
+      <c r="K18" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="L18" s="52">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="M18" s="52">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.186</v>
+      </c>
+      <c r="N18" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="N18" s="53">
+      <c r="O18" s="53">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O18" s="53">
+      <c r="P18" s="53">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
@@ -25317,44 +25615,54 @@
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
     </row>
-    <row r="19" spans="1:122">
-      <c r="A19" s="80">
+    <row r="19" spans="1:123">
+      <c r="A19" s="73">
         <v>12</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="80">
+      <c r="C19" s="73">
         <v>1</v>
       </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="82">
+      <c r="D19" s="74"/>
+      <c r="E19" s="75">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F19" s="83" t="s">
+      <c r="F19" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="86" t="s">
+      <c r="G19" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52" t="s">
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="76">
+        <v>10.16</v>
+      </c>
+      <c r="K19" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="L19" s="52">
+        <v>0.112</v>
+      </c>
+      <c r="M19" s="52">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.112</v>
+      </c>
+      <c r="N19" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="N19" s="53">
+      <c r="O19" s="53">
         <v>0.05</v>
       </c>
-      <c r="O19" s="53">
+      <c r="P19" s="53">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>0.05</v>
       </c>
-      <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
@@ -25369,43 +25677,53 @@
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
       <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
     </row>
-    <row r="20" spans="1:122">
-      <c r="A20" s="80">
+    <row r="20" spans="1:123">
+      <c r="A20" s="73">
         <v>13</v>
       </c>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="74" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="80">
+      <c r="C20" s="73">
         <v>2</v>
       </c>
-      <c r="D20" s="81"/>
-      <c r="E20" s="82">
+      <c r="D20" s="74"/>
+      <c r="E20" s="75">
         <v>10</v>
       </c>
-      <c r="F20" s="81" t="s">
+      <c r="F20" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="86" t="s">
+      <c r="G20" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52" t="s">
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="76">
+        <v>10.16</v>
+      </c>
+      <c r="K20" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="L20" s="52">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="M20" s="52">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.186</v>
+      </c>
+      <c r="N20" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="N20" s="53">
+      <c r="O20" s="53">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O20" s="53">
+      <c r="P20" s="53">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -25420,44 +25738,54 @@
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
     </row>
-    <row r="21" spans="1:122">
-      <c r="A21" s="80">
+    <row r="21" spans="1:123">
+      <c r="A21" s="73">
         <v>14</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="80">
+      <c r="C21" s="73">
         <v>1</v>
       </c>
-      <c r="D21" s="81"/>
-      <c r="E21" s="82">
+      <c r="D21" s="74"/>
+      <c r="E21" s="75">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F21" s="81" t="s">
+      <c r="F21" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="86" t="s">
+      <c r="G21" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52" t="s">
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="76">
+        <v>10.16</v>
+      </c>
+      <c r="K21" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="L21" s="52">
+        <v>0.112</v>
+      </c>
+      <c r="M21" s="52">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.112</v>
+      </c>
+      <c r="N21" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="N21" s="53">
+      <c r="O21" s="53">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O21" s="53">
+      <c r="P21" s="53">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
@@ -25472,44 +25800,54 @@
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
     </row>
-    <row r="22" spans="1:122">
-      <c r="A22" s="80">
+    <row r="22" spans="1:123">
+      <c r="A22" s="73">
         <v>15</v>
       </c>
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="80">
+      <c r="C22" s="73">
         <v>1</v>
       </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="82">
+      <c r="D22" s="74"/>
+      <c r="E22" s="75">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F22" s="83" t="s">
+      <c r="F22" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="86" t="s">
+      <c r="G22" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52" t="s">
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="76">
+        <v>10.16</v>
+      </c>
+      <c r="K22" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="L22" s="52">
+        <v>0.112</v>
+      </c>
+      <c r="M22" s="52">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.112</v>
+      </c>
+      <c r="N22" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="N22" s="53">
+      <c r="O22" s="53">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O22" s="53">
+      <c r="P22" s="53">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -25524,44 +25862,54 @@
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
     </row>
-    <row r="23" spans="1:122">
-      <c r="A23" s="80">
+    <row r="23" spans="1:123">
+      <c r="A23" s="73">
         <v>16</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="80">
+      <c r="C23" s="73">
         <v>1</v>
       </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89">
+      <c r="D23" s="55"/>
+      <c r="E23" s="80">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F23" s="88" t="s">
+      <c r="F23" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="86" t="s">
+      <c r="G23" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54" t="s">
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="76">
+        <v>10.16</v>
+      </c>
+      <c r="K23" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="L23" s="54">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="M23" s="54">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="N23" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="N23" s="55">
+      <c r="O23" s="55">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O23" s="55">
+      <c r="P23" s="55">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
@@ -25576,44 +25924,47 @@
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
       <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
     </row>
-    <row r="24" spans="1:122" ht="14.4">
-      <c r="A24" s="80">
+    <row r="24" spans="1:123" ht="14.4">
+      <c r="A24" s="73">
         <v>17</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="80">
+      <c r="C24" s="73">
         <v>1</v>
       </c>
-      <c r="D24" s="90"/>
-      <c r="E24" s="91">
+      <c r="D24" s="81"/>
+      <c r="E24" s="82">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F24" s="81" t="s">
+      <c r="F24" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="86" t="s">
+      <c r="G24" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="56" t="s">
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="76">
+        <v>12.7</v>
+      </c>
+      <c r="K24" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="K24" s="57">
+      <c r="L24" s="57">
         <v>0.40600000000000003</v>
       </c>
-      <c r="L24" s="57">
+      <c r="M24" s="57">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
         <v>0.40600000000000003</v>
       </c>
-      <c r="M24" s="57"/>
-      <c r="N24" s="58"/>
+      <c r="N24" s="57"/>
       <c r="O24" s="58"/>
-      <c r="P24" s="7"/>
+      <c r="P24" s="58"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
@@ -25628,43 +25979,53 @@
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
     </row>
-    <row r="25" spans="1:122" ht="14.4">
-      <c r="A25" s="80">
+    <row r="25" spans="1:123" ht="14.4">
+      <c r="A25" s="73">
         <v>18</v>
       </c>
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="C25" s="80">
+      <c r="C25" s="73">
         <v>2</v>
       </c>
-      <c r="D25" s="92"/>
-      <c r="E25" s="91">
+      <c r="D25" s="83"/>
+      <c r="E25" s="82">
         <v>10</v>
       </c>
-      <c r="F25" s="81" t="s">
+      <c r="F25" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="86" t="s">
+      <c r="G25" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59" t="s">
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="145">
+        <v>10.16</v>
+      </c>
+      <c r="K25" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="L25" s="132">
+        <v>0.112</v>
+      </c>
+      <c r="M25" s="132">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.224</v>
+      </c>
+      <c r="N25" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="N25" s="58">
+      <c r="O25" s="58">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O25" s="58">
+      <c r="P25" s="58">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
@@ -25679,44 +26040,54 @@
       <c r="AB25" s="7"/>
       <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
     </row>
-    <row r="26" spans="1:122" s="2" customFormat="1" ht="14.4">
-      <c r="A26" s="80">
+    <row r="26" spans="1:123" s="2" customFormat="1" ht="14.4">
+      <c r="A26" s="73">
         <v>19</v>
       </c>
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="80">
+      <c r="C26" s="73">
         <v>1</v>
       </c>
-      <c r="D26" s="93"/>
-      <c r="E26" s="91">
+      <c r="D26" s="84"/>
+      <c r="E26" s="82">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F26" s="81" t="s">
+      <c r="F26" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="86" t="s">
+      <c r="G26" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57" t="s">
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="145">
+        <v>15.24</v>
+      </c>
+      <c r="K26" s="57" t="s">
+        <v>282</v>
+      </c>
+      <c r="L26" s="57">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="M26" s="57">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="N26" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="N26" s="58">
+      <c r="O26" s="58">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O26" s="58">
+      <c r="P26" s="58">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P26" s="40"/>
       <c r="Q26" s="40"/>
       <c r="R26" s="40"/>
       <c r="S26" s="40"/>
@@ -25823,44 +26194,54 @@
       <c r="DP26" s="40"/>
       <c r="DQ26" s="40"/>
       <c r="DR26" s="40"/>
+      <c r="DS26" s="40"/>
     </row>
-    <row r="27" spans="1:122" s="19" customFormat="1">
-      <c r="A27" s="130">
+    <row r="27" spans="1:123" s="19" customFormat="1">
+      <c r="A27" s="113">
         <v>20</v>
       </c>
-      <c r="B27" s="143" t="s">
+      <c r="B27" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="130">
+      <c r="C27" s="113">
         <v>1</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="134">
+      <c r="D27" s="116"/>
+      <c r="E27" s="117">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F27" s="144" t="s">
+      <c r="F27" s="122" t="s">
         <v>235</v>
       </c>
-      <c r="G27" s="145" t="s">
+      <c r="G27" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="126" t="s">
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="134">
+        <v>10.16</v>
+      </c>
+      <c r="K27" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="L27" s="111">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="M27" s="111">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="N27" s="111" t="s">
         <v>236</v>
       </c>
-      <c r="N27" s="133">
+      <c r="O27" s="116">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O27" s="133">
+      <c r="P27" s="116">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
@@ -25875,7 +26256,7 @@
       <c r="AB27" s="7"/>
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
-      <c r="AE27" s="1"/>
+      <c r="AE27" s="7"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
@@ -25967,44 +26348,54 @@
       <c r="DP27" s="1"/>
       <c r="DQ27" s="1"/>
       <c r="DR27" s="1"/>
+      <c r="DS27" s="1"/>
     </row>
-    <row r="28" spans="1:122" s="19" customFormat="1">
-      <c r="A28" s="80">
+    <row r="28" spans="1:123" s="19" customFormat="1">
+      <c r="A28" s="73">
         <v>21</v>
       </c>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="80">
+      <c r="C28" s="73">
         <v>1</v>
       </c>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89">
+      <c r="D28" s="55"/>
+      <c r="E28" s="80">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F28" s="81" t="s">
+      <c r="F28" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="86" t="s">
+      <c r="G28" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54" t="s">
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="144">
+        <v>10.16</v>
+      </c>
+      <c r="K28" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="L28" s="54">
+        <v>0.112</v>
+      </c>
+      <c r="M28" s="54">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.112</v>
+      </c>
+      <c r="N28" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="N28" s="55">
+      <c r="O28" s="55">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O28" s="55">
+      <c r="P28" s="55">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -26019,7 +26410,7 @@
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
       <c r="AD28" s="7"/>
-      <c r="AE28" s="1"/>
+      <c r="AE28" s="7"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
@@ -26111,44 +26502,54 @@
       <c r="DP28" s="1"/>
       <c r="DQ28" s="1"/>
       <c r="DR28" s="1"/>
+      <c r="DS28" s="1"/>
     </row>
-    <row r="29" spans="1:122" s="19" customFormat="1">
-      <c r="A29" s="80">
+    <row r="29" spans="1:123" s="19" customFormat="1">
+      <c r="A29" s="73">
         <v>22</v>
       </c>
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="80">
+      <c r="C29" s="73">
         <v>1</v>
       </c>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89">
+      <c r="D29" s="55"/>
+      <c r="E29" s="80">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F29" s="81" t="s">
+      <c r="F29" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="86" t="s">
+      <c r="G29" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54" t="s">
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="144">
+        <v>10.16</v>
+      </c>
+      <c r="K29" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="L29" s="54">
+        <v>0.112</v>
+      </c>
+      <c r="M29" s="54">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.112</v>
+      </c>
+      <c r="N29" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="N29" s="55">
+      <c r="O29" s="55">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O29" s="55">
+      <c r="P29" s="55">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
@@ -26163,7 +26564,7 @@
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
       <c r="AD29" s="7"/>
-      <c r="AE29" s="1"/>
+      <c r="AE29" s="7"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
@@ -26255,44 +26656,54 @@
       <c r="DP29" s="1"/>
       <c r="DQ29" s="1"/>
       <c r="DR29" s="1"/>
+      <c r="DS29" s="1"/>
     </row>
-    <row r="30" spans="1:122" s="19" customFormat="1">
-      <c r="A30" s="80">
+    <row r="30" spans="1:123" s="19" customFormat="1">
+      <c r="A30" s="73">
         <v>23</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="80">
+      <c r="C30" s="73">
         <v>1</v>
       </c>
-      <c r="D30" s="88"/>
-      <c r="E30" s="89">
+      <c r="D30" s="55"/>
+      <c r="E30" s="80">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F30" s="81" t="s">
+      <c r="F30" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="86" t="s">
+      <c r="G30" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54" t="s">
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="144">
+        <v>10.16</v>
+      </c>
+      <c r="K30" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="L30" s="54">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="M30" s="54">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="N30" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="N30" s="55">
+      <c r="O30" s="55">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O30" s="55">
+      <c r="P30" s="55">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
@@ -26307,7 +26718,7 @@
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
-      <c r="AE30" s="1"/>
+      <c r="AE30" s="7"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
@@ -26399,44 +26810,54 @@
       <c r="DP30" s="1"/>
       <c r="DQ30" s="1"/>
       <c r="DR30" s="1"/>
+      <c r="DS30" s="1"/>
     </row>
-    <row r="31" spans="1:122" s="19" customFormat="1">
-      <c r="A31" s="80">
+    <row r="31" spans="1:123" s="19" customFormat="1">
+      <c r="A31" s="73">
         <v>24</v>
       </c>
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="80">
+      <c r="C31" s="73">
         <v>1</v>
       </c>
-      <c r="D31" s="88"/>
-      <c r="E31" s="89">
+      <c r="D31" s="55"/>
+      <c r="E31" s="80">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F31" s="81" t="s">
+      <c r="F31" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G31" s="86" t="s">
+      <c r="G31" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54" t="s">
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="144">
+        <v>10.16</v>
+      </c>
+      <c r="K31" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="L31" s="54">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="M31" s="54">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="N31" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="N31" s="55">
+      <c r="O31" s="55">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O31" s="55">
+      <c r="P31" s="55">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
@@ -26451,7 +26872,7 @@
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="1"/>
+      <c r="AE31" s="7"/>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
@@ -26543,43 +26964,53 @@
       <c r="DP31" s="1"/>
       <c r="DQ31" s="1"/>
       <c r="DR31" s="1"/>
+      <c r="DS31" s="1"/>
     </row>
-    <row r="32" spans="1:122" s="19" customFormat="1">
-      <c r="A32" s="80">
+    <row r="32" spans="1:123" s="19" customFormat="1">
+      <c r="A32" s="73">
         <v>25</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="80">
+      <c r="C32" s="73">
         <v>2</v>
       </c>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89">
+      <c r="D32" s="55"/>
+      <c r="E32" s="80">
         <v>10</v>
       </c>
-      <c r="F32" s="81" t="s">
+      <c r="F32" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="86" t="s">
+      <c r="G32" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54" t="s">
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="135" t="s">
+        <v>297</v>
+      </c>
+      <c r="K32" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="L32" s="54">
+        <v>0.112</v>
+      </c>
+      <c r="M32" s="54">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.224</v>
+      </c>
+      <c r="N32" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="N32" s="55">
+      <c r="O32" s="55">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O32" s="55">
+      <c r="P32" s="55">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
@@ -26594,7 +27025,7 @@
       <c r="AB32" s="7"/>
       <c r="AC32" s="7"/>
       <c r="AD32" s="7"/>
-      <c r="AE32" s="1"/>
+      <c r="AE32" s="7"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
@@ -26686,44 +27117,54 @@
       <c r="DP32" s="1"/>
       <c r="DQ32" s="1"/>
       <c r="DR32" s="1"/>
+      <c r="DS32" s="1"/>
     </row>
-    <row r="33" spans="1:122" s="19" customFormat="1">
-      <c r="A33" s="80">
+    <row r="33" spans="1:123" s="19" customFormat="1">
+      <c r="A33" s="73">
         <v>26</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="80">
+      <c r="C33" s="73">
         <v>1</v>
       </c>
-      <c r="D33" s="88"/>
-      <c r="E33" s="89">
+      <c r="D33" s="55"/>
+      <c r="E33" s="80">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F33" s="81" t="s">
+      <c r="F33" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="86" t="s">
+      <c r="G33" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54" t="s">
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="95">
+        <v>12.7</v>
+      </c>
+      <c r="K33" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="L33" s="54">
+        <v>0.112</v>
+      </c>
+      <c r="M33" s="54">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.112</v>
+      </c>
+      <c r="N33" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="N33" s="55">
+      <c r="O33" s="55">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O33" s="55">
+      <c r="P33" s="55">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
@@ -26738,7 +27179,7 @@
       <c r="AB33" s="7"/>
       <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
-      <c r="AE33" s="1"/>
+      <c r="AE33" s="7"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
@@ -26830,44 +27271,54 @@
       <c r="DP33" s="1"/>
       <c r="DQ33" s="1"/>
       <c r="DR33" s="1"/>
+      <c r="DS33" s="1"/>
     </row>
-    <row r="34" spans="1:122" s="19" customFormat="1">
-      <c r="A34" s="80">
+    <row r="34" spans="1:123" s="19" customFormat="1">
+      <c r="A34" s="73">
         <v>27</v>
       </c>
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="80">
+      <c r="C34" s="73">
         <v>1</v>
       </c>
-      <c r="D34" s="88"/>
-      <c r="E34" s="89">
+      <c r="D34" s="55"/>
+      <c r="E34" s="80">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F34" s="81" t="s">
+      <c r="F34" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="86" t="s">
+      <c r="G34" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54" t="s">
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="95">
+        <v>10.16</v>
+      </c>
+      <c r="K34" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="L34" s="54">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="M34" s="54">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="N34" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="N34" s="55">
+      <c r="O34" s="55">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O34" s="55">
+      <c r="P34" s="55">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
@@ -26882,7 +27333,7 @@
       <c r="AB34" s="7"/>
       <c r="AC34" s="7"/>
       <c r="AD34" s="7"/>
-      <c r="AE34" s="1"/>
+      <c r="AE34" s="7"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
@@ -26974,43 +27425,53 @@
       <c r="DP34" s="1"/>
       <c r="DQ34" s="1"/>
       <c r="DR34" s="1"/>
+      <c r="DS34" s="1"/>
     </row>
-    <row r="35" spans="1:122" s="19" customFormat="1">
-      <c r="A35" s="80">
+    <row r="35" spans="1:123" s="19" customFormat="1">
+      <c r="A35" s="73">
         <v>28</v>
       </c>
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="80">
+      <c r="C35" s="73">
         <v>9</v>
       </c>
-      <c r="D35" s="88"/>
-      <c r="E35" s="89">
+      <c r="D35" s="55"/>
+      <c r="E35" s="80">
         <v>45</v>
       </c>
-      <c r="F35" s="81" t="s">
+      <c r="F35" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="86" t="s">
+      <c r="G35" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54" t="s">
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="135" t="s">
+        <v>298</v>
+      </c>
+      <c r="K35" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="L35" s="54">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="M35" s="54">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.91799999999999993</v>
+      </c>
+      <c r="N35" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="N35" s="55">
+      <c r="O35" s="55">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O35" s="55">
+      <c r="P35" s="55">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>0.31500000000000006</v>
       </c>
-      <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
@@ -27025,7 +27486,7 @@
       <c r="AB35" s="7"/>
       <c r="AC35" s="7"/>
       <c r="AD35" s="7"/>
-      <c r="AE35" s="1"/>
+      <c r="AE35" s="7"/>
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
@@ -27117,44 +27578,54 @@
       <c r="DP35" s="1"/>
       <c r="DQ35" s="1"/>
       <c r="DR35" s="1"/>
+      <c r="DS35" s="1"/>
     </row>
-    <row r="36" spans="1:122" s="19" customFormat="1">
-      <c r="A36" s="80">
+    <row r="36" spans="1:123" s="19" customFormat="1">
+      <c r="A36" s="73">
         <v>29</v>
       </c>
-      <c r="B36" s="81" t="s">
+      <c r="B36" s="74" t="s">
         <v>229</v>
       </c>
-      <c r="C36" s="80">
+      <c r="C36" s="73">
         <v>1</v>
       </c>
-      <c r="D36" s="88"/>
-      <c r="E36" s="89">
+      <c r="D36" s="55"/>
+      <c r="E36" s="80">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F36" s="81" t="s">
+      <c r="F36" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="G36" s="86" t="s">
+      <c r="G36" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54" t="s">
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="95">
+        <v>22.86</v>
+      </c>
+      <c r="K36" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="L36" s="54">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="M36" s="54">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="N36" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="N36" s="55">
+      <c r="O36" s="55">
         <v>0.17</v>
       </c>
-      <c r="O36" s="55">
+      <c r="P36" s="55">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>0.17</v>
       </c>
-      <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
@@ -27169,7 +27640,7 @@
       <c r="AB36" s="7"/>
       <c r="AC36" s="7"/>
       <c r="AD36" s="7"/>
-      <c r="AE36" s="1"/>
+      <c r="AE36" s="7"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
@@ -27261,44 +27732,47 @@
       <c r="DP36" s="1"/>
       <c r="DQ36" s="1"/>
       <c r="DR36" s="1"/>
+      <c r="DS36" s="1"/>
     </row>
-    <row r="37" spans="1:122" s="19" customFormat="1">
-      <c r="A37" s="80">
+    <row r="37" spans="1:123" s="19" customFormat="1">
+      <c r="A37" s="73">
         <v>30</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="80">
+      <c r="C37" s="73">
         <v>1</v>
       </c>
-      <c r="D37" s="88"/>
-      <c r="E37" s="89">
+      <c r="D37" s="55"/>
+      <c r="E37" s="80">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F37" s="81" t="s">
+      <c r="F37" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="G37" s="86" t="s">
+      <c r="G37" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="54" t="s">
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="95">
+        <v>15.24</v>
+      </c>
+      <c r="K37" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="K37" s="54">
+      <c r="L37" s="54">
         <v>0.39200000000000002</v>
       </c>
-      <c r="L37" s="54">
+      <c r="M37" s="54">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
         <v>0.39200000000000002</v>
       </c>
-      <c r="M37" s="54"/>
-      <c r="N37" s="55"/>
+      <c r="N37" s="54"/>
       <c r="O37" s="55"/>
-      <c r="P37" s="7"/>
+      <c r="P37" s="55"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
@@ -27313,7 +27787,7 @@
       <c r="AB37" s="7"/>
       <c r="AC37" s="7"/>
       <c r="AD37" s="7"/>
-      <c r="AE37" s="1"/>
+      <c r="AE37" s="7"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
@@ -27405,44 +27879,54 @@
       <c r="DP37" s="1"/>
       <c r="DQ37" s="1"/>
       <c r="DR37" s="1"/>
+      <c r="DS37" s="1"/>
     </row>
-    <row r="38" spans="1:122" s="19" customFormat="1">
-      <c r="A38" s="80">
+    <row r="38" spans="1:123" s="19" customFormat="1">
+      <c r="A38" s="73">
         <v>31</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="80">
+      <c r="C38" s="73">
         <v>1</v>
       </c>
-      <c r="D38" s="88"/>
-      <c r="E38" s="89">
+      <c r="D38" s="55"/>
+      <c r="E38" s="80">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F38" s="81" t="s">
+      <c r="F38" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="G38" s="86" t="s">
+      <c r="G38" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54" t="s">
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="95">
+        <v>10.16</v>
+      </c>
+      <c r="K38" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="L38" s="54">
+        <v>0.112</v>
+      </c>
+      <c r="M38" s="54">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.112</v>
+      </c>
+      <c r="N38" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="N38" s="55">
+      <c r="O38" s="55">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O38" s="55">
+      <c r="P38" s="55">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
@@ -27457,7 +27941,7 @@
       <c r="AB38" s="7"/>
       <c r="AC38" s="7"/>
       <c r="AD38" s="7"/>
-      <c r="AE38" s="1"/>
+      <c r="AE38" s="7"/>
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
@@ -27549,44 +28033,47 @@
       <c r="DP38" s="1"/>
       <c r="DQ38" s="1"/>
       <c r="DR38" s="1"/>
+      <c r="DS38" s="1"/>
     </row>
-    <row r="39" spans="1:122" s="19" customFormat="1">
-      <c r="A39" s="80">
+    <row r="39" spans="1:123" s="19" customFormat="1">
+      <c r="A39" s="73">
         <v>32</v>
       </c>
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="80">
+      <c r="C39" s="73">
         <v>1</v>
       </c>
-      <c r="D39" s="88"/>
-      <c r="E39" s="89">
+      <c r="D39" s="55"/>
+      <c r="E39" s="80">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F39" s="81" t="s">
+      <c r="F39" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="G39" s="86" t="s">
+      <c r="G39" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="54" t="s">
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="95">
+        <v>15.24</v>
+      </c>
+      <c r="K39" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="K39" s="54">
+      <c r="L39" s="54">
         <v>0.39200000000000002</v>
       </c>
-      <c r="L39" s="54">
+      <c r="M39" s="54">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
         <v>0.39200000000000002</v>
       </c>
-      <c r="M39" s="54"/>
-      <c r="N39" s="55"/>
+      <c r="N39" s="54"/>
       <c r="O39" s="55"/>
-      <c r="P39" s="7"/>
+      <c r="P39" s="55"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
@@ -27601,7 +28088,7 @@
       <c r="AB39" s="7"/>
       <c r="AC39" s="7"/>
       <c r="AD39" s="7"/>
-      <c r="AE39" s="1"/>
+      <c r="AE39" s="7"/>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
@@ -27693,44 +28180,54 @@
       <c r="DP39" s="1"/>
       <c r="DQ39" s="1"/>
       <c r="DR39" s="1"/>
+      <c r="DS39" s="1"/>
     </row>
-    <row r="40" spans="1:122" s="19" customFormat="1">
-      <c r="A40" s="80">
+    <row r="40" spans="1:123" s="19" customFormat="1">
+      <c r="A40" s="73">
         <v>33</v>
       </c>
-      <c r="B40" s="81" t="s">
+      <c r="B40" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="80">
+      <c r="C40" s="73">
         <v>1</v>
       </c>
-      <c r="D40" s="88"/>
-      <c r="E40" s="89">
+      <c r="D40" s="55"/>
+      <c r="E40" s="80">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F40" s="81" t="s">
+      <c r="F40" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="G40" s="86" t="s">
+      <c r="G40" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54" t="s">
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="95">
+        <v>10.16</v>
+      </c>
+      <c r="K40" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="L40" s="54">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="M40" s="54">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="N40" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="N40" s="55">
+      <c r="O40" s="55">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O40" s="55">
+      <c r="P40" s="55">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
@@ -27745,7 +28242,7 @@
       <c r="AB40" s="7"/>
       <c r="AC40" s="7"/>
       <c r="AD40" s="7"/>
-      <c r="AE40" s="1"/>
+      <c r="AE40" s="7"/>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
@@ -27837,44 +28334,54 @@
       <c r="DP40" s="1"/>
       <c r="DQ40" s="1"/>
       <c r="DR40" s="1"/>
+      <c r="DS40" s="1"/>
     </row>
-    <row r="41" spans="1:122" s="19" customFormat="1">
-      <c r="A41" s="80">
+    <row r="41" spans="1:123" s="19" customFormat="1">
+      <c r="A41" s="73">
         <v>34</v>
       </c>
-      <c r="B41" s="81" t="s">
+      <c r="B41" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="80">
+      <c r="C41" s="73">
         <v>1</v>
       </c>
-      <c r="D41" s="88"/>
-      <c r="E41" s="89">
+      <c r="D41" s="55"/>
+      <c r="E41" s="80">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F41" s="81" t="s">
+      <c r="F41" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="G41" s="86" t="s">
+      <c r="G41" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54" t="s">
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="95">
+        <v>10.16</v>
+      </c>
+      <c r="K41" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="L41" s="54">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="M41" s="54">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="N41" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="N41" s="55">
+      <c r="O41" s="55">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O41" s="55">
+      <c r="P41" s="55">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
@@ -27889,7 +28396,7 @@
       <c r="AB41" s="7"/>
       <c r="AC41" s="7"/>
       <c r="AD41" s="7"/>
-      <c r="AE41" s="1"/>
+      <c r="AE41" s="7"/>
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
@@ -27981,43 +28488,46 @@
       <c r="DP41" s="1"/>
       <c r="DQ41" s="1"/>
       <c r="DR41" s="1"/>
+      <c r="DS41" s="1"/>
     </row>
-    <row r="42" spans="1:122" s="19" customFormat="1">
-      <c r="A42" s="80">
+    <row r="42" spans="1:123" s="19" customFormat="1">
+      <c r="A42" s="73">
         <v>35</v>
       </c>
-      <c r="B42" s="81" t="s">
+      <c r="B42" s="74" t="s">
         <v>230</v>
       </c>
-      <c r="C42" s="80">
+      <c r="C42" s="73">
         <v>2</v>
       </c>
-      <c r="D42" s="88"/>
-      <c r="E42" s="89">
+      <c r="D42" s="55"/>
+      <c r="E42" s="80">
         <v>10</v>
       </c>
-      <c r="F42" s="81" t="s">
+      <c r="F42" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="G42" s="86" t="s">
+      <c r="G42" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="54" t="s">
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="95">
+        <v>15.24</v>
+      </c>
+      <c r="K42" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="K42" s="54">
+      <c r="L42" s="54">
         <v>0.22900000000000001</v>
       </c>
-      <c r="L42" s="54">
+      <c r="M42" s="54">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
         <v>0.45800000000000002</v>
       </c>
-      <c r="M42" s="54"/>
-      <c r="N42" s="55"/>
+      <c r="N42" s="54"/>
       <c r="O42" s="55"/>
-      <c r="P42" s="7"/>
+      <c r="P42" s="55"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
@@ -28032,7 +28542,7 @@
       <c r="AB42" s="7"/>
       <c r="AC42" s="7"/>
       <c r="AD42" s="7"/>
-      <c r="AE42" s="1"/>
+      <c r="AE42" s="7"/>
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
       <c r="AH42" s="1"/>
@@ -28124,39 +28634,48 @@
       <c r="DP42" s="1"/>
       <c r="DQ42" s="1"/>
       <c r="DR42" s="1"/>
+      <c r="DS42" s="1"/>
     </row>
-    <row r="43" spans="1:122" s="19" customFormat="1">
-      <c r="A43" s="80">
-        <v>36</v>
-      </c>
-      <c r="B43" s="88" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" s="95">
-        <v>13</v>
-      </c>
-      <c r="D43" s="88"/>
-      <c r="E43" s="89">
-        <f>Tabelle13[[#This Row],[*Qty]]*10</f>
-        <v>130</v>
-      </c>
-      <c r="F43" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" s="96" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88" t="s">
-        <v>194</v>
-      </c>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="55"/>
+    <row r="43" spans="1:123" s="19" customFormat="1">
+      <c r="A43" s="73">
+        <v>37</v>
+      </c>
+      <c r="B43" s="85" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="87">
+        <v>4</v>
+      </c>
+      <c r="D43" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="80">
+        <v>20</v>
+      </c>
+      <c r="F43" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="135" t="s">
+        <v>299</v>
+      </c>
+      <c r="K43" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="L43" s="54">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="M43" s="54">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="N43" s="54"/>
       <c r="O43" s="55"/>
-      <c r="P43" s="7"/>
+      <c r="P43" s="55"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
@@ -28171,7 +28690,7 @@
       <c r="AB43" s="7"/>
       <c r="AC43" s="7"/>
       <c r="AD43" s="7"/>
-      <c r="AE43" s="1"/>
+      <c r="AE43" s="7"/>
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
@@ -28263,45 +28782,49 @@
       <c r="DP43" s="1"/>
       <c r="DQ43" s="1"/>
       <c r="DR43" s="1"/>
+      <c r="DS43" s="1"/>
     </row>
-    <row r="44" spans="1:122" s="19" customFormat="1">
-      <c r="A44" s="80">
-        <v>37</v>
-      </c>
-      <c r="B44" s="94" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44" s="97">
-        <v>4</v>
-      </c>
-      <c r="D44" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="E44" s="89">
-        <v>20</v>
-      </c>
-      <c r="F44" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="G44" s="96" t="s">
+    <row r="44" spans="1:123" s="19" customFormat="1">
+      <c r="A44" s="73">
+        <v>38</v>
+      </c>
+      <c r="B44" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="86">
+        <v>1</v>
+      </c>
+      <c r="D44" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="80">
+        <f>Tabelle13[[#This Row],[*Qty]]*10</f>
+        <v>10</v>
+      </c>
+      <c r="F44" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="K44" s="54">
-        <v>5.2999999999999999E-2</v>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="95">
+        <v>10.16</v>
+      </c>
+      <c r="K44" s="54" t="s">
+        <v>196</v>
       </c>
       <c r="L44" s="54">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="M44" s="54">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="M44" s="54"/>
-      <c r="N44" s="55"/>
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="N44" s="54"/>
       <c r="O44" s="55"/>
-      <c r="P44" s="7"/>
+      <c r="P44" s="55"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
@@ -28316,7 +28839,7 @@
       <c r="AB44" s="7"/>
       <c r="AC44" s="7"/>
       <c r="AD44" s="7"/>
-      <c r="AE44" s="1"/>
+      <c r="AE44" s="7"/>
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
       <c r="AH44" s="1"/>
@@ -28408,46 +28931,49 @@
       <c r="DP44" s="1"/>
       <c r="DQ44" s="1"/>
       <c r="DR44" s="1"/>
+      <c r="DS44" s="1"/>
     </row>
-    <row r="45" spans="1:122" s="19" customFormat="1">
-      <c r="A45" s="80">
-        <v>38</v>
-      </c>
-      <c r="B45" s="81" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45" s="95">
+    <row r="45" spans="1:123" s="19" customFormat="1">
+      <c r="A45" s="73">
+        <v>39</v>
+      </c>
+      <c r="B45" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="86">
         <v>1</v>
       </c>
-      <c r="D45" s="88" t="s">
+      <c r="D45" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="E45" s="89">
+      <c r="E45" s="80">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F45" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="G45" s="96" t="s">
+      <c r="F45" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="K45" s="54">
-        <v>0.10100000000000001</v>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="95">
+        <v>10.16</v>
+      </c>
+      <c r="K45" s="54" t="s">
+        <v>197</v>
       </c>
       <c r="L45" s="54">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="M45" s="54">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="M45" s="54"/>
-      <c r="N45" s="55"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="N45" s="54"/>
       <c r="O45" s="55"/>
-      <c r="P45" s="7"/>
+      <c r="P45" s="55"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
@@ -28462,7 +28988,7 @@
       <c r="AB45" s="7"/>
       <c r="AC45" s="7"/>
       <c r="AD45" s="7"/>
-      <c r="AE45" s="1"/>
+      <c r="AE45" s="7"/>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
@@ -28554,46 +29080,55 @@
       <c r="DP45" s="1"/>
       <c r="DQ45" s="1"/>
       <c r="DR45" s="1"/>
+      <c r="DS45" s="1"/>
     </row>
-    <row r="46" spans="1:122" s="19" customFormat="1">
-      <c r="A46" s="80">
-        <v>39</v>
-      </c>
-      <c r="B46" s="81" t="s">
-        <v>152</v>
-      </c>
-      <c r="C46" s="95">
-        <v>1</v>
-      </c>
-      <c r="D46" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="E46" s="89">
-        <f>Tabelle13[[#This Row],[*Qty]]*10</f>
+    <row r="46" spans="1:123" s="19" customFormat="1">
+      <c r="A46" s="73">
+        <v>40</v>
+      </c>
+      <c r="B46" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="86">
+        <v>2</v>
+      </c>
+      <c r="D46" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="80">
         <v>10</v>
       </c>
-      <c r="F46" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="G46" s="96" t="s">
+      <c r="F46" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="G46" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="K46" s="54">
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="135" t="s">
+        <v>300</v>
+      </c>
+      <c r="K46" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="L46" s="54">
         <v>0.10199999999999999</v>
       </c>
-      <c r="L46" s="54">
+      <c r="M46" s="54">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="M46" s="54"/>
-      <c r="N46" s="55"/>
-      <c r="O46" s="55"/>
-      <c r="P46" s="7"/>
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="N46" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="O46" s="55">
+        <v>0.04</v>
+      </c>
+      <c r="P46" s="55">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
+        <v>0.08</v>
+      </c>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
@@ -28608,7 +29143,7 @@
       <c r="AB46" s="7"/>
       <c r="AC46" s="7"/>
       <c r="AD46" s="7"/>
-      <c r="AE46" s="1"/>
+      <c r="AE46" s="7"/>
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
@@ -28700,45 +29235,48 @@
       <c r="DP46" s="1"/>
       <c r="DQ46" s="1"/>
       <c r="DR46" s="1"/>
+      <c r="DS46" s="1"/>
     </row>
-    <row r="47" spans="1:122" s="19" customFormat="1">
-      <c r="A47" s="80">
-        <v>40</v>
-      </c>
-      <c r="B47" s="81" t="s">
-        <v>151</v>
-      </c>
-      <c r="C47" s="95">
-        <v>2</v>
-      </c>
-      <c r="D47" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="E47" s="89">
-        <v>10</v>
-      </c>
-      <c r="F47" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="G47" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="N47" s="55">
-        <v>0.04</v>
-      </c>
-      <c r="O47" s="55">
-        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
-        <v>0.08</v>
-      </c>
-      <c r="P47" s="7"/>
+    <row r="47" spans="1:123" s="19" customFormat="1">
+      <c r="A47" s="73">
+        <v>41</v>
+      </c>
+      <c r="B47" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="86">
+        <v>3</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="80">
+        <v>15</v>
+      </c>
+      <c r="F47" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="95">
+        <v>12.7</v>
+      </c>
+      <c r="K47" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="L47" s="54">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="M47" s="54">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.21899999999999997</v>
+      </c>
+      <c r="N47" s="54"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="55"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
@@ -28753,7 +29291,7 @@
       <c r="AB47" s="7"/>
       <c r="AC47" s="7"/>
       <c r="AD47" s="7"/>
-      <c r="AE47" s="1"/>
+      <c r="AE47" s="7"/>
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
@@ -28845,45 +29383,50 @@
       <c r="DP47" s="1"/>
       <c r="DQ47" s="1"/>
       <c r="DR47" s="1"/>
+      <c r="DS47" s="1"/>
     </row>
-    <row r="48" spans="1:122" s="19" customFormat="1">
-      <c r="A48" s="80">
-        <v>41</v>
-      </c>
-      <c r="B48" s="81" t="s">
-        <v>150</v>
-      </c>
-      <c r="C48" s="95">
-        <v>3</v>
-      </c>
-      <c r="D48" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="89">
-        <v>15</v>
-      </c>
-      <c r="F48" s="88" t="s">
-        <v>84</v>
-      </c>
-      <c r="G48" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="K48" s="54">
-        <v>7.2999999999999995E-2</v>
+    <row r="48" spans="1:123" s="19" customFormat="1">
+      <c r="A48" s="73">
+        <v>42</v>
+      </c>
+      <c r="B48" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="89">
+        <v>5</v>
+      </c>
+      <c r="D48" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="90">
+        <v>25</v>
+      </c>
+      <c r="F48" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="I48" s="60"/>
+      <c r="J48" s="136">
+        <v>5.08</v>
+      </c>
+      <c r="K48" s="54" t="s">
+        <v>200</v>
       </c>
       <c r="L48" s="54">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="M48" s="54">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
-        <v>0.21899999999999997</v>
-      </c>
-      <c r="M48" s="54"/>
-      <c r="N48" s="55"/>
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="N48" s="54"/>
       <c r="O48" s="55"/>
-      <c r="P48" s="7"/>
+      <c r="P48" s="55"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
@@ -28898,8 +29441,8 @@
       <c r="AB48" s="7"/>
       <c r="AC48" s="7"/>
       <c r="AD48" s="7"/>
-      <c r="AE48" s="1"/>
-      <c r="AF48" s="1"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
       <c r="AG48" s="1"/>
       <c r="AH48" s="1"/>
       <c r="AI48" s="1"/>
@@ -28990,47 +29533,50 @@
       <c r="DP48" s="1"/>
       <c r="DQ48" s="1"/>
       <c r="DR48" s="1"/>
+      <c r="DS48" s="1"/>
     </row>
-    <row r="49" spans="1:122" s="19" customFormat="1">
-      <c r="A49" s="80">
-        <v>42</v>
-      </c>
-      <c r="B49" s="98" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="99">
+    <row r="49" spans="1:123" s="19" customFormat="1">
+      <c r="A49" s="73">
+        <v>43</v>
+      </c>
+      <c r="B49" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="89">
+        <v>1</v>
+      </c>
+      <c r="D49" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="90">
         <v>5</v>
       </c>
-      <c r="D49" s="100" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" s="101">
-        <v>25</v>
-      </c>
-      <c r="F49" s="100" t="s">
-        <v>92</v>
-      </c>
-      <c r="G49" s="112" t="s">
+      <c r="F49" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="G49" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="H49" s="100" t="s">
-        <v>94</v>
-      </c>
-      <c r="I49" s="100"/>
-      <c r="J49" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="K49" s="54">
-        <v>0.17899999999999999</v>
+      <c r="H49" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="I49" s="55"/>
+      <c r="J49" s="136">
+        <v>5.08</v>
+      </c>
+      <c r="K49" s="60" t="s">
+        <v>97</v>
       </c>
       <c r="L49" s="54">
+        <v>0.755</v>
+      </c>
+      <c r="M49" s="54">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="M49" s="54"/>
-      <c r="N49" s="55"/>
+        <v>0.755</v>
+      </c>
+      <c r="N49" s="54"/>
       <c r="O49" s="55"/>
-      <c r="P49" s="7"/>
+      <c r="P49" s="55"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
@@ -29046,7 +29592,7 @@
       <c r="AC49" s="7"/>
       <c r="AD49" s="7"/>
       <c r="AE49" s="7"/>
-      <c r="AF49" s="1"/>
+      <c r="AF49" s="7"/>
       <c r="AG49" s="1"/>
       <c r="AH49" s="1"/>
       <c r="AI49" s="1"/>
@@ -29137,47 +29683,50 @@
       <c r="DP49" s="1"/>
       <c r="DQ49" s="1"/>
       <c r="DR49" s="1"/>
+      <c r="DS49" s="1"/>
     </row>
-    <row r="50" spans="1:122" s="19" customFormat="1">
-      <c r="A50" s="80">
-        <v>43</v>
-      </c>
-      <c r="B50" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="99">
+    <row r="50" spans="1:123" s="19" customFormat="1">
+      <c r="A50" s="73">
+        <v>44</v>
+      </c>
+      <c r="B50" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="89">
         <v>1</v>
       </c>
-      <c r="D50" s="100" t="s">
+      <c r="D50" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="101">
+      <c r="E50" s="90">
         <v>5</v>
       </c>
-      <c r="F50" s="100" t="s">
-        <v>96</v>
-      </c>
-      <c r="G50" s="102" t="s">
+      <c r="F50" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="G50" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="H50" s="100" t="s">
+      <c r="H50" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="I50" s="88"/>
-      <c r="J50" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="K50" s="54">
-        <v>0.755</v>
+      <c r="I50" s="55"/>
+      <c r="J50" s="136">
+        <v>5.08</v>
+      </c>
+      <c r="K50" s="60" t="s">
+        <v>99</v>
       </c>
       <c r="L50" s="54">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="M50" s="54">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
-        <v>0.755</v>
-      </c>
-      <c r="M50" s="54"/>
-      <c r="N50" s="55"/>
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="N50" s="54"/>
       <c r="O50" s="55"/>
-      <c r="P50" s="7"/>
+      <c r="P50" s="55"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
@@ -29193,7 +29742,7 @@
       <c r="AC50" s="7"/>
       <c r="AD50" s="7"/>
       <c r="AE50" s="7"/>
-      <c r="AF50" s="1"/>
+      <c r="AF50" s="7"/>
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
       <c r="AI50" s="1"/>
@@ -29284,47 +29833,59 @@
       <c r="DP50" s="1"/>
       <c r="DQ50" s="1"/>
       <c r="DR50" s="1"/>
+      <c r="DS50" s="1"/>
     </row>
-    <row r="51" spans="1:122" s="19" customFormat="1">
-      <c r="A51" s="80">
-        <v>44</v>
-      </c>
-      <c r="B51" s="98" t="s">
+    <row r="51" spans="1:123" s="19" customFormat="1">
+      <c r="A51" s="73">
+        <v>45</v>
+      </c>
+      <c r="B51" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="89">
+        <v>2</v>
+      </c>
+      <c r="D51" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="90">
         <v>10</v>
       </c>
-      <c r="C51" s="99">
-        <v>1</v>
-      </c>
-      <c r="D51" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="E51" s="101">
-        <v>5</v>
-      </c>
-      <c r="F51" s="100" t="s">
-        <v>98</v>
-      </c>
-      <c r="G51" s="102" t="s">
-        <v>91</v>
-      </c>
-      <c r="H51" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="I51" s="88"/>
-      <c r="J51" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="K51" s="54">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="L51" s="54">
+      <c r="F51" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="G51" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="H51" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="I51" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="J51" s="137">
+        <v>5.08</v>
+      </c>
+      <c r="K51" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="L51" s="55">
+        <v>1.03</v>
+      </c>
+      <c r="M51" s="55">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="M51" s="54"/>
-      <c r="N51" s="55"/>
-      <c r="O51" s="55"/>
-      <c r="P51" s="7"/>
+        <v>2.06</v>
+      </c>
+      <c r="N51" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="O51" s="55">
+        <v>0.05</v>
+      </c>
+      <c r="P51" s="55">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
+        <v>0.1</v>
+      </c>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
@@ -29340,7 +29901,7 @@
       <c r="AC51" s="7"/>
       <c r="AD51" s="7"/>
       <c r="AE51" s="7"/>
-      <c r="AF51" s="1"/>
+      <c r="AF51" s="7"/>
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
       <c r="AI51" s="1"/>
@@ -29431,49 +29992,59 @@
       <c r="DP51" s="1"/>
       <c r="DQ51" s="1"/>
       <c r="DR51" s="1"/>
+      <c r="DS51" s="1"/>
     </row>
-    <row r="52" spans="1:122" s="19" customFormat="1">
-      <c r="A52" s="80">
-        <v>45</v>
-      </c>
-      <c r="B52" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="99">
+    <row r="52" spans="1:123" s="19" customFormat="1" ht="27.6">
+      <c r="A52" s="73">
+        <v>46</v>
+      </c>
+      <c r="B52" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="89">
         <v>2</v>
       </c>
-      <c r="D52" s="100" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" s="101">
+      <c r="D52" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="90">
         <v>10</v>
       </c>
-      <c r="F52" s="100" t="s">
-        <v>100</v>
-      </c>
-      <c r="G52" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="H52" s="100" t="s">
-        <v>94</v>
-      </c>
-      <c r="I52" s="100" t="s">
-        <v>102</v>
-      </c>
-      <c r="J52" s="55"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="55"/>
-      <c r="M52" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="N52" s="55">
-        <v>0.05</v>
+      <c r="F52" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="G52" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I52" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="J52" s="136">
+        <v>22.86</v>
+      </c>
+      <c r="K52" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="L52" s="54">
+        <v>2.88</v>
+      </c>
+      <c r="M52" s="54">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>5.76</v>
+      </c>
+      <c r="N52" s="54" t="s">
+        <v>202</v>
       </c>
       <c r="O52" s="55">
+        <v>0.43</v>
+      </c>
+      <c r="P52" s="55">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
-        <v>0.1</v>
-      </c>
-      <c r="P52" s="7"/>
+        <v>0.86</v>
+      </c>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
@@ -29489,7 +30060,7 @@
       <c r="AC52" s="7"/>
       <c r="AD52" s="7"/>
       <c r="AE52" s="7"/>
-      <c r="AF52" s="1"/>
+      <c r="AF52" s="7"/>
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
       <c r="AI52" s="1"/>
@@ -29580,49 +30151,59 @@
       <c r="DP52" s="1"/>
       <c r="DQ52" s="1"/>
       <c r="DR52" s="1"/>
+      <c r="DS52" s="1"/>
     </row>
-    <row r="53" spans="1:122" s="19" customFormat="1">
-      <c r="A53" s="80">
-        <v>46</v>
-      </c>
-      <c r="B53" s="98" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" s="99">
-        <v>2</v>
-      </c>
-      <c r="D53" s="100" t="s">
-        <v>106</v>
-      </c>
-      <c r="E53" s="101">
-        <v>10</v>
-      </c>
-      <c r="F53" s="100" t="s">
-        <v>108</v>
-      </c>
-      <c r="G53" s="102" t="s">
+    <row r="53" spans="1:123" s="19" customFormat="1" ht="27.6">
+      <c r="A53" s="73">
+        <v>47</v>
+      </c>
+      <c r="B53" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="89">
+        <v>1</v>
+      </c>
+      <c r="D53" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="90">
+        <v>5</v>
+      </c>
+      <c r="F53" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="G53" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="H53" s="100" t="s">
+      <c r="H53" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="I53" s="100" t="s">
-        <v>105</v>
-      </c>
-      <c r="J53" s="55"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="N53" s="55">
-        <v>0.43</v>
+      <c r="I53" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="J53" s="136">
+        <v>22.86</v>
+      </c>
+      <c r="K53" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="L53" s="54">
+        <v>2.95</v>
+      </c>
+      <c r="M53" s="54">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>2.95</v>
+      </c>
+      <c r="N53" s="54" t="s">
+        <v>203</v>
       </c>
       <c r="O53" s="55">
+        <v>0.49</v>
+      </c>
+      <c r="P53" s="55">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
-        <v>0.86</v>
-      </c>
-      <c r="P53" s="7"/>
+        <v>0.49</v>
+      </c>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
@@ -29638,7 +30219,7 @@
       <c r="AC53" s="7"/>
       <c r="AD53" s="7"/>
       <c r="AE53" s="7"/>
-      <c r="AF53" s="1"/>
+      <c r="AF53" s="7"/>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
       <c r="AI53" s="1"/>
@@ -29729,49 +30310,55 @@
       <c r="DP53" s="1"/>
       <c r="DQ53" s="1"/>
       <c r="DR53" s="1"/>
+      <c r="DS53" s="1"/>
     </row>
-    <row r="54" spans="1:122" s="19" customFormat="1">
-      <c r="A54" s="80">
-        <v>47</v>
-      </c>
-      <c r="B54" s="98" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="99">
-        <v>1</v>
-      </c>
-      <c r="D54" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54" s="101">
-        <v>5</v>
-      </c>
-      <c r="F54" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="G54" s="102" t="s">
-        <v>107</v>
-      </c>
-      <c r="H54" s="100" t="s">
-        <v>104</v>
-      </c>
-      <c r="I54" s="100" t="s">
-        <v>110</v>
-      </c>
-      <c r="J54" s="55"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="N54" s="55">
-        <v>0.49</v>
+    <row r="54" spans="1:123" s="19" customFormat="1">
+      <c r="A54" s="73">
+        <v>48</v>
+      </c>
+      <c r="B54" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="89">
+        <v>2</v>
+      </c>
+      <c r="D54" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="90">
+        <v>10</v>
+      </c>
+      <c r="F54" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="G54" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="H54" s="55"/>
+      <c r="I54" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="J54" s="136"/>
+      <c r="K54" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="L54" s="54">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="M54" s="54">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.186</v>
+      </c>
+      <c r="N54" s="54" t="s">
+        <v>204</v>
       </c>
       <c r="O54" s="55">
+        <v>0.05</v>
+      </c>
+      <c r="P54" s="55">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
-        <v>0.49</v>
-      </c>
-      <c r="P54" s="7"/>
+        <v>0.1</v>
+      </c>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
       <c r="S54" s="7"/>
@@ -29787,7 +30374,7 @@
       <c r="AC54" s="7"/>
       <c r="AD54" s="7"/>
       <c r="AE54" s="7"/>
-      <c r="AF54" s="1"/>
+      <c r="AF54" s="7"/>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
       <c r="AI54" s="1"/>
@@ -29878,47 +30465,53 @@
       <c r="DP54" s="1"/>
       <c r="DQ54" s="1"/>
       <c r="DR54" s="1"/>
+      <c r="DS54" s="1"/>
     </row>
-    <row r="55" spans="1:122" s="19" customFormat="1">
-      <c r="A55" s="80">
-        <v>48</v>
-      </c>
-      <c r="B55" s="98" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="99">
-        <v>2</v>
-      </c>
-      <c r="D55" s="100" t="s">
-        <v>118</v>
-      </c>
-      <c r="E55" s="101">
-        <v>10</v>
-      </c>
-      <c r="F55" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="G55" s="102" t="s">
+    <row r="55" spans="1:123" s="19" customFormat="1">
+      <c r="A55" s="73">
+        <v>50</v>
+      </c>
+      <c r="B55" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="93">
+        <v>4</v>
+      </c>
+      <c r="D55" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="94">
+        <v>20</v>
+      </c>
+      <c r="F55" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" s="124" t="s">
         <v>122</v>
       </c>
-      <c r="H55" s="88"/>
-      <c r="I55" s="100" t="s">
-        <v>116</v>
-      </c>
-      <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="N55" s="55">
-        <v>0.05</v>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="138"/>
+      <c r="K55" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="L55" s="54">
+        <v>0.13</v>
+      </c>
+      <c r="M55" s="54">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.52</v>
+      </c>
+      <c r="N55" s="54" t="s">
+        <v>206</v>
       </c>
       <c r="O55" s="55">
+        <v>0.06</v>
+      </c>
+      <c r="P55" s="55">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
-        <v>0.1</v>
-      </c>
-      <c r="P55" s="7"/>
+        <v>0.24</v>
+      </c>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
@@ -29934,7 +30527,7 @@
       <c r="AC55" s="7"/>
       <c r="AD55" s="7"/>
       <c r="AE55" s="7"/>
-      <c r="AF55" s="1"/>
+      <c r="AF55" s="7"/>
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
       <c r="AI55" s="1"/>
@@ -30025,188 +30618,203 @@
       <c r="DP55" s="1"/>
       <c r="DQ55" s="1"/>
       <c r="DR55" s="1"/>
+      <c r="DS55" s="1"/>
     </row>
-    <row r="56" spans="1:122" s="24" customFormat="1">
-      <c r="A56" s="138">
-        <v>49</v>
-      </c>
-      <c r="B56" s="139" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="140">
+    <row r="56" spans="1:123" s="19" customFormat="1">
+      <c r="A56" s="73">
+        <v>51</v>
+      </c>
+      <c r="B56" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="89">
         <v>1</v>
       </c>
-      <c r="D56" s="141" t="s">
-        <v>118</v>
-      </c>
-      <c r="E56" s="140">
+      <c r="D56" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" s="90">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F56" s="141" t="s">
-        <v>120</v>
-      </c>
-      <c r="G56" s="142" t="s">
+      <c r="F56" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="G56" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="H56" s="141"/>
-      <c r="I56" s="141" t="s">
-        <v>127</v>
-      </c>
-      <c r="J56" s="141"/>
-      <c r="K56" s="141"/>
-      <c r="L56" s="141"/>
-      <c r="M56" s="141" t="s">
-        <v>205</v>
-      </c>
-      <c r="N56" s="141"/>
-      <c r="O56" s="141"/>
-      <c r="P56" s="41"/>
-      <c r="Q56" s="41"/>
-      <c r="R56" s="41"/>
-      <c r="S56" s="41"/>
-      <c r="T56" s="41"/>
-      <c r="U56" s="41"/>
-      <c r="V56" s="41"/>
-      <c r="W56" s="41"/>
-      <c r="X56" s="41"/>
-      <c r="Y56" s="41"/>
-      <c r="Z56" s="41"/>
-      <c r="AA56" s="41"/>
-      <c r="AB56" s="41"/>
-      <c r="AC56" s="41"/>
-      <c r="AD56" s="41"/>
-      <c r="AE56" s="41"/>
-      <c r="AF56" s="42"/>
-      <c r="AG56" s="42"/>
-      <c r="AH56" s="42"/>
-      <c r="AI56" s="42"/>
-      <c r="AJ56" s="42"/>
-      <c r="AK56" s="42"/>
-      <c r="AL56" s="42"/>
-      <c r="AM56" s="42"/>
-      <c r="AN56" s="42"/>
-      <c r="AO56" s="42"/>
-      <c r="AP56" s="42"/>
-      <c r="AQ56" s="42"/>
-      <c r="AR56" s="42"/>
-      <c r="AS56" s="42"/>
-      <c r="AT56" s="42"/>
-      <c r="AU56" s="42"/>
-      <c r="AV56" s="42"/>
-      <c r="AW56" s="42"/>
-      <c r="AX56" s="42"/>
-      <c r="AY56" s="42"/>
-      <c r="AZ56" s="42"/>
-      <c r="BA56" s="42"/>
-      <c r="BB56" s="42"/>
-      <c r="BC56" s="42"/>
-      <c r="BD56" s="42"/>
-      <c r="BE56" s="42"/>
-      <c r="BF56" s="42"/>
-      <c r="BG56" s="42"/>
-      <c r="BH56" s="42"/>
-      <c r="BI56" s="42"/>
-      <c r="BJ56" s="42"/>
-      <c r="BK56" s="42"/>
-      <c r="BL56" s="42"/>
-      <c r="BM56" s="42"/>
-      <c r="BN56" s="42"/>
-      <c r="BO56" s="42"/>
-      <c r="BP56" s="42"/>
-      <c r="BQ56" s="42"/>
-      <c r="BR56" s="42"/>
-      <c r="BS56" s="42"/>
-      <c r="BT56" s="42"/>
-      <c r="BU56" s="42"/>
-      <c r="BV56" s="42"/>
-      <c r="BW56" s="42"/>
-      <c r="BX56" s="42"/>
-      <c r="BY56" s="42"/>
-      <c r="BZ56" s="42"/>
-      <c r="CA56" s="42"/>
-      <c r="CB56" s="42"/>
-      <c r="CC56" s="42"/>
-      <c r="CD56" s="42"/>
-      <c r="CE56" s="42"/>
-      <c r="CF56" s="42"/>
-      <c r="CG56" s="42"/>
-      <c r="CH56" s="42"/>
-      <c r="CI56" s="42"/>
-      <c r="CJ56" s="42"/>
-      <c r="CK56" s="42"/>
-      <c r="CL56" s="42"/>
-      <c r="CM56" s="42"/>
-      <c r="CN56" s="42"/>
-      <c r="CO56" s="42"/>
-      <c r="CP56" s="42"/>
-      <c r="CQ56" s="42"/>
-      <c r="CR56" s="42"/>
-      <c r="CS56" s="42"/>
-      <c r="CT56" s="42"/>
-      <c r="CU56" s="42"/>
-      <c r="CV56" s="42"/>
-      <c r="CW56" s="42"/>
-      <c r="CX56" s="42"/>
-      <c r="CY56" s="42"/>
-      <c r="CZ56" s="42"/>
-      <c r="DA56" s="42"/>
-      <c r="DB56" s="42"/>
-      <c r="DC56" s="42"/>
-      <c r="DD56" s="42"/>
-      <c r="DE56" s="42"/>
-      <c r="DF56" s="42"/>
-      <c r="DG56" s="42"/>
-      <c r="DH56" s="42"/>
-      <c r="DI56" s="42"/>
-      <c r="DJ56" s="42"/>
-      <c r="DK56" s="42"/>
-      <c r="DL56" s="42"/>
-      <c r="DM56" s="42"/>
-      <c r="DN56" s="42"/>
-      <c r="DO56" s="42"/>
-      <c r="DP56" s="42"/>
-      <c r="DQ56" s="42"/>
-      <c r="DR56" s="42"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="136"/>
+      <c r="K56" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="L56" s="54">
+        <v>0.13</v>
+      </c>
+      <c r="M56" s="54">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.13</v>
+      </c>
+      <c r="N56" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="O56" s="55">
+        <v>0.06</v>
+      </c>
+      <c r="P56" s="55">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
+        <v>0.06</v>
+      </c>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="1"/>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="1"/>
+      <c r="AK56" s="1"/>
+      <c r="AL56" s="1"/>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="1"/>
+      <c r="AO56" s="1"/>
+      <c r="AP56" s="1"/>
+      <c r="AQ56" s="1"/>
+      <c r="AR56" s="1"/>
+      <c r="AS56" s="1"/>
+      <c r="AT56" s="1"/>
+      <c r="AU56" s="1"/>
+      <c r="AV56" s="1"/>
+      <c r="AW56" s="1"/>
+      <c r="AX56" s="1"/>
+      <c r="AY56" s="1"/>
+      <c r="AZ56" s="1"/>
+      <c r="BA56" s="1"/>
+      <c r="BB56" s="1"/>
+      <c r="BC56" s="1"/>
+      <c r="BD56" s="1"/>
+      <c r="BE56" s="1"/>
+      <c r="BF56" s="1"/>
+      <c r="BG56" s="1"/>
+      <c r="BH56" s="1"/>
+      <c r="BI56" s="1"/>
+      <c r="BJ56" s="1"/>
+      <c r="BK56" s="1"/>
+      <c r="BL56" s="1"/>
+      <c r="BM56" s="1"/>
+      <c r="BN56" s="1"/>
+      <c r="BO56" s="1"/>
+      <c r="BP56" s="1"/>
+      <c r="BQ56" s="1"/>
+      <c r="BR56" s="1"/>
+      <c r="BS56" s="1"/>
+      <c r="BT56" s="1"/>
+      <c r="BU56" s="1"/>
+      <c r="BV56" s="1"/>
+      <c r="BW56" s="1"/>
+      <c r="BX56" s="1"/>
+      <c r="BY56" s="1"/>
+      <c r="BZ56" s="1"/>
+      <c r="CA56" s="1"/>
+      <c r="CB56" s="1"/>
+      <c r="CC56" s="1"/>
+      <c r="CD56" s="1"/>
+      <c r="CE56" s="1"/>
+      <c r="CF56" s="1"/>
+      <c r="CG56" s="1"/>
+      <c r="CH56" s="1"/>
+      <c r="CI56" s="1"/>
+      <c r="CJ56" s="1"/>
+      <c r="CK56" s="1"/>
+      <c r="CL56" s="1"/>
+      <c r="CM56" s="1"/>
+      <c r="CN56" s="1"/>
+      <c r="CO56" s="1"/>
+      <c r="CP56" s="1"/>
+      <c r="CQ56" s="1"/>
+      <c r="CR56" s="1"/>
+      <c r="CS56" s="1"/>
+      <c r="CT56" s="1"/>
+      <c r="CU56" s="1"/>
+      <c r="CV56" s="1"/>
+      <c r="CW56" s="1"/>
+      <c r="CX56" s="1"/>
+      <c r="CY56" s="1"/>
+      <c r="CZ56" s="1"/>
+      <c r="DA56" s="1"/>
+      <c r="DB56" s="1"/>
+      <c r="DC56" s="1"/>
+      <c r="DD56" s="1"/>
+      <c r="DE56" s="1"/>
+      <c r="DF56" s="1"/>
+      <c r="DG56" s="1"/>
+      <c r="DH56" s="1"/>
+      <c r="DI56" s="1"/>
+      <c r="DJ56" s="1"/>
+      <c r="DK56" s="1"/>
+      <c r="DL56" s="1"/>
+      <c r="DM56" s="1"/>
+      <c r="DN56" s="1"/>
+      <c r="DO56" s="1"/>
+      <c r="DP56" s="1"/>
+      <c r="DQ56" s="1"/>
+      <c r="DR56" s="1"/>
+      <c r="DS56" s="1"/>
     </row>
-    <row r="57" spans="1:122" s="19" customFormat="1">
-      <c r="A57" s="80">
-        <v>50</v>
-      </c>
-      <c r="B57" s="103" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" s="104">
-        <v>4</v>
-      </c>
-      <c r="D57" s="105" t="s">
-        <v>123</v>
-      </c>
-      <c r="E57" s="106">
-        <v>20</v>
-      </c>
-      <c r="F57" s="105" t="s">
-        <v>126</v>
-      </c>
-      <c r="G57" s="107" t="s">
-        <v>122</v>
-      </c>
-      <c r="H57" s="105"/>
-      <c r="I57" s="105"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="N57" s="55">
-        <v>0.06</v>
-      </c>
-      <c r="O57" s="55">
-        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
-        <v>0.24</v>
-      </c>
-      <c r="P57" s="7"/>
+    <row r="57" spans="1:123" s="19" customFormat="1" ht="55.2">
+      <c r="A57" s="73">
+        <v>52</v>
+      </c>
+      <c r="B57" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="86">
+        <v>1</v>
+      </c>
+      <c r="D57" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="90">
+        <f>Tabelle13[[#This Row],[*Qty]]*10</f>
+        <v>10</v>
+      </c>
+      <c r="F57" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="G57" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57" s="60"/>
+      <c r="I57" s="91" t="s">
+        <v>220</v>
+      </c>
+      <c r="J57" s="139"/>
+      <c r="K57" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="L57" s="61">
+        <v>1.01</v>
+      </c>
+      <c r="M57" s="61">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>1.01</v>
+      </c>
+      <c r="N57" s="61"/>
+      <c r="O57" s="62"/>
+      <c r="P57" s="62"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
@@ -30222,7 +30830,7 @@
       <c r="AC57" s="7"/>
       <c r="AD57" s="7"/>
       <c r="AE57" s="7"/>
-      <c r="AF57" s="1"/>
+      <c r="AF57" s="7"/>
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
       <c r="AI57" s="1"/>
@@ -30313,46 +30921,36 @@
       <c r="DP57" s="1"/>
       <c r="DQ57" s="1"/>
       <c r="DR57" s="1"/>
+      <c r="DS57" s="1"/>
     </row>
-    <row r="58" spans="1:122" s="19" customFormat="1">
-      <c r="A58" s="80">
-        <v>51</v>
-      </c>
-      <c r="B58" s="98" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="99">
+    <row r="58" spans="1:123" s="19" customFormat="1">
+      <c r="A58" s="73">
+        <v>53</v>
+      </c>
+      <c r="B58" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="86">
         <v>1</v>
       </c>
-      <c r="D58" s="100" t="s">
-        <v>124</v>
-      </c>
-      <c r="E58" s="101">
+      <c r="D58" s="60"/>
+      <c r="E58" s="90">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F58" s="100" t="s">
-        <v>125</v>
-      </c>
-      <c r="G58" s="102" t="s">
-        <v>122</v>
-      </c>
-      <c r="H58" s="100"/>
-      <c r="I58" s="100"/>
-      <c r="J58" s="54"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="91"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="J58" s="140"/>
       <c r="K58" s="54"/>
       <c r="L58" s="54"/>
-      <c r="M58" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="N58" s="55">
-        <v>0.06</v>
-      </c>
-      <c r="O58" s="55">
-        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
-        <v>0.06</v>
-      </c>
-      <c r="P58" s="7"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="55"/>
+      <c r="P58" s="55"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
       <c r="S58" s="7"/>
@@ -30368,7 +30966,7 @@
       <c r="AC58" s="7"/>
       <c r="AD58" s="7"/>
       <c r="AE58" s="7"/>
-      <c r="AF58" s="1"/>
+      <c r="AF58" s="7"/>
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
       <c r="AI58" s="1"/>
@@ -30459,48 +31057,49 @@
       <c r="DP58" s="1"/>
       <c r="DQ58" s="1"/>
       <c r="DR58" s="1"/>
+      <c r="DS58" s="1"/>
     </row>
-    <row r="59" spans="1:122" s="19" customFormat="1" ht="55.2">
-      <c r="A59" s="80">
-        <v>52</v>
-      </c>
-      <c r="B59" s="81" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" s="95">
+    <row r="59" spans="1:123" s="19" customFormat="1">
+      <c r="A59" s="73">
+        <v>54</v>
+      </c>
+      <c r="B59" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="86">
         <v>1</v>
       </c>
-      <c r="D59" s="100" t="s">
-        <v>134</v>
-      </c>
-      <c r="E59" s="101">
+      <c r="D59" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" s="90">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F59" s="100" t="s">
-        <v>135</v>
-      </c>
-      <c r="G59" s="102" t="s">
-        <v>38</v>
-      </c>
-      <c r="H59" s="100"/>
-      <c r="I59" s="102" t="s">
-        <v>220</v>
-      </c>
-      <c r="J59" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="K59" s="61">
-        <v>1.01</v>
-      </c>
-      <c r="L59" s="61">
+      <c r="F59" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="G59" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="H59" s="60"/>
+      <c r="I59" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="J59" s="140"/>
+      <c r="K59" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="L59" s="54">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="M59" s="54">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
-        <v>1.01</v>
-      </c>
-      <c r="M59" s="61"/>
-      <c r="N59" s="62"/>
-      <c r="O59" s="62"/>
-      <c r="P59" s="7"/>
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="N59" s="54"/>
+      <c r="O59" s="55"/>
+      <c r="P59" s="55"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
@@ -30516,7 +31115,7 @@
       <c r="AC59" s="7"/>
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
-      <c r="AF59" s="1"/>
+      <c r="AF59" s="7"/>
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
@@ -30607,38 +31206,47 @@
       <c r="DP59" s="1"/>
       <c r="DQ59" s="1"/>
       <c r="DR59" s="1"/>
+      <c r="DS59" s="1"/>
     </row>
-    <row r="60" spans="1:122" s="19" customFormat="1">
-      <c r="A60" s="80">
-        <v>53</v>
-      </c>
-      <c r="B60" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="C60" s="95">
+    <row r="60" spans="1:123" s="19" customFormat="1">
+      <c r="A60" s="73">
+        <v>55</v>
+      </c>
+      <c r="B60" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="86">
         <v>1</v>
       </c>
-      <c r="D60" s="100"/>
-      <c r="E60" s="101">
+      <c r="D60" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="E60" s="90">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F60" s="100"/>
-      <c r="G60" s="102"/>
-      <c r="H60" s="100"/>
-      <c r="I60" s="100" t="s">
-        <v>132</v>
-      </c>
-      <c r="J60" s="54"/>
-      <c r="K60" s="54"/>
+      <c r="F60" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="G60" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="H60" s="60"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="136"/>
+      <c r="K60" s="54" t="s">
+        <v>210</v>
+      </c>
       <c r="L60" s="54">
+        <v>0.45</v>
+      </c>
+      <c r="M60" s="54">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
-        <v>0</v>
-      </c>
-      <c r="M60" s="54"/>
-      <c r="N60" s="55"/>
+        <v>0.45</v>
+      </c>
+      <c r="N60" s="54"/>
       <c r="O60" s="55"/>
-      <c r="P60" s="7"/>
+      <c r="P60" s="55"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
@@ -30654,7 +31262,7 @@
       <c r="AC60" s="7"/>
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
-      <c r="AF60" s="1"/>
+      <c r="AF60" s="7"/>
       <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
       <c r="AI60" s="1"/>
@@ -30745,48 +31353,44 @@
       <c r="DP60" s="1"/>
       <c r="DQ60" s="1"/>
       <c r="DR60" s="1"/>
+      <c r="DS60" s="1"/>
     </row>
-    <row r="61" spans="1:122" s="19" customFormat="1">
-      <c r="A61" s="80">
-        <v>54</v>
-      </c>
-      <c r="B61" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="95">
-        <v>1</v>
-      </c>
-      <c r="D61" s="100" t="s">
-        <v>136</v>
-      </c>
-      <c r="E61" s="101">
-        <f>Tabelle13[[#This Row],[*Qty]]*10</f>
-        <v>10</v>
-      </c>
-      <c r="F61" s="100" t="s">
-        <v>139</v>
-      </c>
-      <c r="G61" s="102" t="s">
-        <v>138</v>
-      </c>
-      <c r="H61" s="100"/>
-      <c r="I61" s="100" t="s">
-        <v>137</v>
-      </c>
-      <c r="J61" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="K61" s="54">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="L61" s="54">
+    <row r="61" spans="1:123" s="19" customFormat="1" ht="14.4">
+      <c r="A61" s="113">
+        <v>56</v>
+      </c>
+      <c r="B61" s="114" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="115">
+        <v>2</v>
+      </c>
+      <c r="D61" s="116" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="117">
+        <v>20</v>
+      </c>
+      <c r="F61" s="118" t="s">
+        <v>233</v>
+      </c>
+      <c r="G61" s="119"/>
+      <c r="H61" s="116"/>
+      <c r="I61" s="120"/>
+      <c r="J61" s="141"/>
+      <c r="K61" s="112" t="s">
+        <v>234</v>
+      </c>
+      <c r="L61" s="112">
+        <v>0.623</v>
+      </c>
+      <c r="M61" s="111">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="M61" s="54"/>
-      <c r="N61" s="55"/>
-      <c r="O61" s="55"/>
-      <c r="P61" s="7"/>
+        <v>1.246</v>
+      </c>
+      <c r="N61" s="112"/>
+      <c r="O61" s="119"/>
+      <c r="P61" s="119"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
       <c r="S61" s="7"/>
@@ -30802,7 +31406,7 @@
       <c r="AC61" s="7"/>
       <c r="AD61" s="7"/>
       <c r="AE61" s="7"/>
-      <c r="AF61" s="1"/>
+      <c r="AF61" s="7"/>
       <c r="AG61" s="1"/>
       <c r="AH61" s="1"/>
       <c r="AI61" s="1"/>
@@ -30893,46 +31497,40 @@
       <c r="DP61" s="1"/>
       <c r="DQ61" s="1"/>
       <c r="DR61" s="1"/>
+      <c r="DS61" s="1"/>
     </row>
-    <row r="62" spans="1:122" s="19" customFormat="1">
-      <c r="A62" s="80">
-        <v>55</v>
-      </c>
-      <c r="B62" s="81" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="95">
+    <row r="62" spans="1:123" s="19" customFormat="1">
+      <c r="A62" s="73">
+        <v>57</v>
+      </c>
+      <c r="B62" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="89">
         <v>1</v>
       </c>
-      <c r="D62" s="100" t="s">
-        <v>141</v>
-      </c>
-      <c r="E62" s="101">
+      <c r="D62" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" s="80">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F62" s="100" t="s">
-        <v>142</v>
-      </c>
-      <c r="G62" s="102" t="s">
-        <v>140</v>
-      </c>
-      <c r="H62" s="100"/>
-      <c r="I62" s="100"/>
-      <c r="J62" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="K62" s="54">
-        <v>0.45</v>
-      </c>
-      <c r="L62" s="54">
-        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
-        <v>0.45</v>
-      </c>
+      <c r="F62" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="G62" s="62"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="131" t="s">
+        <v>137</v>
+      </c>
+      <c r="J62" s="142"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
       <c r="M62" s="54"/>
-      <c r="N62" s="55"/>
+      <c r="N62" s="54"/>
       <c r="O62" s="55"/>
-      <c r="P62" s="7"/>
+      <c r="P62" s="55"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
       <c r="S62" s="7"/>
@@ -30948,7 +31546,7 @@
       <c r="AC62" s="7"/>
       <c r="AD62" s="7"/>
       <c r="AE62" s="7"/>
-      <c r="AF62" s="1"/>
+      <c r="AF62" s="7"/>
       <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1"/>
@@ -31039,43 +31637,52 @@
       <c r="DP62" s="1"/>
       <c r="DQ62" s="1"/>
       <c r="DR62" s="1"/>
+      <c r="DS62" s="1"/>
     </row>
-    <row r="63" spans="1:122" s="19" customFormat="1" ht="14.4">
-      <c r="A63" s="130">
-        <v>56</v>
-      </c>
-      <c r="B63" s="131" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="132">
-        <v>2</v>
-      </c>
-      <c r="D63" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="E63" s="134">
-        <v>20</v>
-      </c>
-      <c r="F63" s="135" t="s">
-        <v>233</v>
-      </c>
-      <c r="G63" s="136"/>
-      <c r="H63" s="133"/>
-      <c r="I63" s="137"/>
-      <c r="J63" s="128" t="s">
-        <v>234</v>
-      </c>
-      <c r="K63" s="128">
-        <v>0.623</v>
-      </c>
-      <c r="L63" s="126">
+    <row r="63" spans="1:123" s="19" customFormat="1">
+      <c r="A63" s="73">
+        <v>58</v>
+      </c>
+      <c r="B63" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="89">
+        <v>1</v>
+      </c>
+      <c r="D63" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63" s="80">
+        <f>Tabelle13[[#This Row],[*Qty]]*10</f>
+        <v>10</v>
+      </c>
+      <c r="F63" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="G63" s="62"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="136"/>
+      <c r="K63" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="L63" s="63">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="M63" s="63">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
-        <v>1.246</v>
-      </c>
-      <c r="M63" s="128"/>
-      <c r="N63" s="136"/>
-      <c r="O63" s="136"/>
-      <c r="P63" s="7"/>
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="N63" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="O63" s="60">
+        <v>0.27</v>
+      </c>
+      <c r="P63" s="55">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
+        <v>0.27</v>
+      </c>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="7"/>
@@ -31091,7 +31698,7 @@
       <c r="AC63" s="7"/>
       <c r="AD63" s="7"/>
       <c r="AE63" s="7"/>
-      <c r="AF63" s="1"/>
+      <c r="AF63" s="7"/>
       <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>
       <c r="AI63" s="1"/>
@@ -31182,39 +31789,50 @@
       <c r="DP63" s="1"/>
       <c r="DQ63" s="1"/>
       <c r="DR63" s="1"/>
+      <c r="DS63" s="1"/>
     </row>
-    <row r="64" spans="1:122" s="19" customFormat="1">
-      <c r="A64" s="80">
-        <v>57</v>
-      </c>
-      <c r="B64" s="98" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" s="99">
+    <row r="64" spans="1:123" s="19" customFormat="1">
+      <c r="A64" s="96">
+        <v>59</v>
+      </c>
+      <c r="B64" s="88" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" s="89">
         <v>1</v>
       </c>
-      <c r="D64" s="88" t="s">
-        <v>144</v>
-      </c>
-      <c r="E64" s="89">
+      <c r="D64" s="60"/>
+      <c r="E64" s="90">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F64" s="108" t="s">
-        <v>145</v>
-      </c>
-      <c r="G64" s="96"/>
-      <c r="H64" s="88"/>
-      <c r="I64" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="J64" s="54"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="54"/>
-      <c r="M64" s="54"/>
-      <c r="N64" s="55"/>
-      <c r="O64" s="55"/>
-      <c r="P64" s="7"/>
+      <c r="F64" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="G64" s="91"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="136"/>
+      <c r="K64" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="L64" s="60">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="M64" s="60">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="N64" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="O64" s="60">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P64" s="55">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
       <c r="S64" s="7"/>
@@ -31227,9 +31845,9 @@
       <c r="Z64" s="7"/>
       <c r="AA64" s="7"/>
       <c r="AB64" s="7"/>
-      <c r="AC64" s="7"/>
-      <c r="AD64" s="7"/>
-      <c r="AE64" s="7"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
       <c r="AH64" s="1"/>
@@ -31321,44 +31939,54 @@
       <c r="DP64" s="1"/>
       <c r="DQ64" s="1"/>
       <c r="DR64" s="1"/>
+      <c r="DS64" s="1"/>
     </row>
-    <row r="65" spans="1:122" s="19" customFormat="1">
-      <c r="A65" s="80">
-        <v>58</v>
-      </c>
-      <c r="B65" s="98" t="s">
-        <v>130</v>
-      </c>
-      <c r="C65" s="99">
+    <row r="65" spans="1:26">
+      <c r="A65" s="98">
+        <v>61</v>
+      </c>
+      <c r="B65" s="99" t="s">
+        <v>239</v>
+      </c>
+      <c r="C65" s="100">
         <v>1</v>
       </c>
-      <c r="D65" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="E65" s="89">
+      <c r="D65" s="101"/>
+      <c r="E65" s="102">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F65" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="G65" s="96"/>
-      <c r="H65" s="88"/>
-      <c r="I65" s="88"/>
-      <c r="J65" s="63"/>
-      <c r="K65" s="63"/>
-      <c r="L65" s="63"/>
-      <c r="M65" s="63" t="s">
-        <v>211</v>
-      </c>
-      <c r="N65" s="60">
-        <v>0.27</v>
-      </c>
-      <c r="O65" s="55">
+      <c r="F65" s="103" t="s">
+        <v>242</v>
+      </c>
+      <c r="G65" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65" s="101"/>
+      <c r="I65" s="101"/>
+      <c r="J65" s="143">
+        <v>7.62</v>
+      </c>
+      <c r="K65" s="101" t="s">
+        <v>258</v>
+      </c>
+      <c r="L65" s="101">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="M65" s="105">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="N65" s="106" t="s">
+        <v>247</v>
+      </c>
+      <c r="O65" s="101">
+        <v>0.05</v>
+      </c>
+      <c r="P65" s="107">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
-        <v>0.27</v>
-      </c>
-      <c r="P65" s="7"/>
+        <v>0.05</v>
+      </c>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
       <c r="S65" s="7"/>
@@ -31369,518 +31997,98 @@
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="7"/>
-      <c r="AA65" s="7"/>
-      <c r="AB65" s="7"/>
-      <c r="AC65" s="7"/>
-      <c r="AD65" s="7"/>
-      <c r="AE65" s="7"/>
-      <c r="AF65" s="1"/>
-      <c r="AG65" s="1"/>
-      <c r="AH65" s="1"/>
-      <c r="AI65" s="1"/>
-      <c r="AJ65" s="1"/>
-      <c r="AK65" s="1"/>
-      <c r="AL65" s="1"/>
-      <c r="AM65" s="1"/>
-      <c r="AN65" s="1"/>
-      <c r="AO65" s="1"/>
-      <c r="AP65" s="1"/>
-      <c r="AQ65" s="1"/>
-      <c r="AR65" s="1"/>
-      <c r="AS65" s="1"/>
-      <c r="AT65" s="1"/>
-      <c r="AU65" s="1"/>
-      <c r="AV65" s="1"/>
-      <c r="AW65" s="1"/>
-      <c r="AX65" s="1"/>
-      <c r="AY65" s="1"/>
-      <c r="AZ65" s="1"/>
-      <c r="BA65" s="1"/>
-      <c r="BB65" s="1"/>
-      <c r="BC65" s="1"/>
-      <c r="BD65" s="1"/>
-      <c r="BE65" s="1"/>
-      <c r="BF65" s="1"/>
-      <c r="BG65" s="1"/>
-      <c r="BH65" s="1"/>
-      <c r="BI65" s="1"/>
-      <c r="BJ65" s="1"/>
-      <c r="BK65" s="1"/>
-      <c r="BL65" s="1"/>
-      <c r="BM65" s="1"/>
-      <c r="BN65" s="1"/>
-      <c r="BO65" s="1"/>
-      <c r="BP65" s="1"/>
-      <c r="BQ65" s="1"/>
-      <c r="BR65" s="1"/>
-      <c r="BS65" s="1"/>
-      <c r="BT65" s="1"/>
-      <c r="BU65" s="1"/>
-      <c r="BV65" s="1"/>
-      <c r="BW65" s="1"/>
-      <c r="BX65" s="1"/>
-      <c r="BY65" s="1"/>
-      <c r="BZ65" s="1"/>
-      <c r="CA65" s="1"/>
-      <c r="CB65" s="1"/>
-      <c r="CC65" s="1"/>
-      <c r="CD65" s="1"/>
-      <c r="CE65" s="1"/>
-      <c r="CF65" s="1"/>
-      <c r="CG65" s="1"/>
-      <c r="CH65" s="1"/>
-      <c r="CI65" s="1"/>
-      <c r="CJ65" s="1"/>
-      <c r="CK65" s="1"/>
-      <c r="CL65" s="1"/>
-      <c r="CM65" s="1"/>
-      <c r="CN65" s="1"/>
-      <c r="CO65" s="1"/>
-      <c r="CP65" s="1"/>
-      <c r="CQ65" s="1"/>
-      <c r="CR65" s="1"/>
-      <c r="CS65" s="1"/>
-      <c r="CT65" s="1"/>
-      <c r="CU65" s="1"/>
-      <c r="CV65" s="1"/>
-      <c r="CW65" s="1"/>
-      <c r="CX65" s="1"/>
-      <c r="CY65" s="1"/>
-      <c r="CZ65" s="1"/>
-      <c r="DA65" s="1"/>
-      <c r="DB65" s="1"/>
-      <c r="DC65" s="1"/>
-      <c r="DD65" s="1"/>
-      <c r="DE65" s="1"/>
-      <c r="DF65" s="1"/>
-      <c r="DG65" s="1"/>
-      <c r="DH65" s="1"/>
-      <c r="DI65" s="1"/>
-      <c r="DJ65" s="1"/>
-      <c r="DK65" s="1"/>
-      <c r="DL65" s="1"/>
-      <c r="DM65" s="1"/>
-      <c r="DN65" s="1"/>
-      <c r="DO65" s="1"/>
-      <c r="DP65" s="1"/>
-      <c r="DQ65" s="1"/>
-      <c r="DR65" s="1"/>
     </row>
-    <row r="66" spans="1:122" s="19" customFormat="1">
-      <c r="A66" s="109">
-        <v>59</v>
-      </c>
-      <c r="B66" s="98" t="s">
-        <v>212</v>
-      </c>
-      <c r="C66" s="99">
+    <row r="66" spans="1:26">
+      <c r="A66" s="108">
+        <v>62</v>
+      </c>
+      <c r="B66" s="99" t="s">
+        <v>241</v>
+      </c>
+      <c r="C66" s="100">
         <v>1</v>
       </c>
-      <c r="D66" s="100"/>
-      <c r="E66" s="101">
+      <c r="D66" s="101"/>
+      <c r="E66" s="102">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>10</v>
       </c>
-      <c r="F66" s="110" t="s">
-        <v>237</v>
-      </c>
-      <c r="G66" s="102"/>
-      <c r="H66" s="100"/>
-      <c r="I66" s="100"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="63" t="s">
-        <v>238</v>
-      </c>
-      <c r="N66" s="60">
+      <c r="F66" s="103" t="s">
+        <v>243</v>
+      </c>
+      <c r="G66" s="104" t="s">
+        <v>244</v>
+      </c>
+      <c r="H66" s="101"/>
+      <c r="I66" s="101"/>
+      <c r="J66" s="143"/>
+      <c r="K66" s="101" t="s">
+        <v>260</v>
+      </c>
+      <c r="L66" s="101">
+        <v>0.158</v>
+      </c>
+      <c r="M66" s="109">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.158</v>
+      </c>
+      <c r="N66" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="O66" s="101">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O66" s="55">
+      <c r="P66" s="107">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="7"/>
-      <c r="V66" s="7"/>
-      <c r="W66" s="7"/>
-      <c r="X66" s="7"/>
-      <c r="Y66" s="7"/>
-      <c r="Z66" s="7"/>
-      <c r="AA66" s="7"/>
-      <c r="AB66" s="1"/>
-      <c r="AC66" s="1"/>
-      <c r="AD66" s="1"/>
-      <c r="AE66" s="1"/>
-      <c r="AF66" s="1"/>
-      <c r="AG66" s="1"/>
-      <c r="AH66" s="1"/>
-      <c r="AI66" s="1"/>
-      <c r="AJ66" s="1"/>
-      <c r="AK66" s="1"/>
-      <c r="AL66" s="1"/>
-      <c r="AM66" s="1"/>
-      <c r="AN66" s="1"/>
-      <c r="AO66" s="1"/>
-      <c r="AP66" s="1"/>
-      <c r="AQ66" s="1"/>
-      <c r="AR66" s="1"/>
-      <c r="AS66" s="1"/>
-      <c r="AT66" s="1"/>
-      <c r="AU66" s="1"/>
-      <c r="AV66" s="1"/>
-      <c r="AW66" s="1"/>
-      <c r="AX66" s="1"/>
-      <c r="AY66" s="1"/>
-      <c r="AZ66" s="1"/>
-      <c r="BA66" s="1"/>
-      <c r="BB66" s="1"/>
-      <c r="BC66" s="1"/>
-      <c r="BD66" s="1"/>
-      <c r="BE66" s="1"/>
-      <c r="BF66" s="1"/>
-      <c r="BG66" s="1"/>
-      <c r="BH66" s="1"/>
-      <c r="BI66" s="1"/>
-      <c r="BJ66" s="1"/>
-      <c r="BK66" s="1"/>
-      <c r="BL66" s="1"/>
-      <c r="BM66" s="1"/>
-      <c r="BN66" s="1"/>
-      <c r="BO66" s="1"/>
-      <c r="BP66" s="1"/>
-      <c r="BQ66" s="1"/>
-      <c r="BR66" s="1"/>
-      <c r="BS66" s="1"/>
-      <c r="BT66" s="1"/>
-      <c r="BU66" s="1"/>
-      <c r="BV66" s="1"/>
-      <c r="BW66" s="1"/>
-      <c r="BX66" s="1"/>
-      <c r="BY66" s="1"/>
-      <c r="BZ66" s="1"/>
-      <c r="CA66" s="1"/>
-      <c r="CB66" s="1"/>
-      <c r="CC66" s="1"/>
-      <c r="CD66" s="1"/>
-      <c r="CE66" s="1"/>
-      <c r="CF66" s="1"/>
-      <c r="CG66" s="1"/>
-      <c r="CH66" s="1"/>
-      <c r="CI66" s="1"/>
-      <c r="CJ66" s="1"/>
-      <c r="CK66" s="1"/>
-      <c r="CL66" s="1"/>
-      <c r="CM66" s="1"/>
-      <c r="CN66" s="1"/>
-      <c r="CO66" s="1"/>
-      <c r="CP66" s="1"/>
-      <c r="CQ66" s="1"/>
-      <c r="CR66" s="1"/>
-      <c r="CS66" s="1"/>
-      <c r="CT66" s="1"/>
-      <c r="CU66" s="1"/>
-      <c r="CV66" s="1"/>
-      <c r="CW66" s="1"/>
-      <c r="CX66" s="1"/>
-      <c r="CY66" s="1"/>
-      <c r="CZ66" s="1"/>
-      <c r="DA66" s="1"/>
-      <c r="DB66" s="1"/>
-      <c r="DC66" s="1"/>
-      <c r="DD66" s="1"/>
-      <c r="DE66" s="1"/>
-      <c r="DF66" s="1"/>
-      <c r="DG66" s="1"/>
-      <c r="DH66" s="1"/>
-      <c r="DI66" s="1"/>
-      <c r="DJ66" s="1"/>
-      <c r="DK66" s="1"/>
-      <c r="DL66" s="1"/>
-      <c r="DM66" s="1"/>
-      <c r="DN66" s="1"/>
-      <c r="DO66" s="1"/>
-      <c r="DP66" s="1"/>
-      <c r="DQ66" s="1"/>
-      <c r="DR66" s="1"/>
     </row>
-    <row r="67" spans="1:122" s="19" customFormat="1">
-      <c r="A67" s="109">
-        <v>60</v>
-      </c>
-      <c r="B67" s="98" t="s">
-        <v>213</v>
-      </c>
-      <c r="C67" s="99">
-        <v>1</v>
-      </c>
-      <c r="D67" s="100"/>
-      <c r="E67" s="101">
-        <f>Tabelle13[[#This Row],[*Qty]]*10</f>
-        <v>10</v>
-      </c>
-      <c r="F67" s="100" t="s">
-        <v>215</v>
-      </c>
-      <c r="G67" s="102"/>
-      <c r="H67" s="100"/>
-      <c r="I67" s="100"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="60"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="60" t="s">
-        <v>217</v>
-      </c>
-      <c r="N67" s="60">
-        <v>0.02</v>
-      </c>
-      <c r="O67" s="60">
-        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
-        <v>0.02</v>
-      </c>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="7"/>
-      <c r="W67" s="7"/>
-      <c r="X67" s="7"/>
-      <c r="Y67" s="7"/>
-      <c r="Z67" s="7"/>
-      <c r="AA67" s="7"/>
-      <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
-      <c r="AD67" s="1"/>
-      <c r="AE67" s="1"/>
-      <c r="AF67" s="1"/>
-      <c r="AG67" s="1"/>
-      <c r="AH67" s="1"/>
-      <c r="AI67" s="1"/>
-      <c r="AJ67" s="1"/>
-      <c r="AK67" s="1"/>
-      <c r="AL67" s="1"/>
-      <c r="AM67" s="1"/>
-      <c r="AN67" s="1"/>
-      <c r="AO67" s="1"/>
-      <c r="AP67" s="1"/>
-      <c r="AQ67" s="1"/>
-      <c r="AR67" s="1"/>
-      <c r="AS67" s="1"/>
-      <c r="AT67" s="1"/>
-      <c r="AU67" s="1"/>
-      <c r="AV67" s="1"/>
-      <c r="AW67" s="1"/>
-      <c r="AX67" s="1"/>
-      <c r="AY67" s="1"/>
-      <c r="AZ67" s="1"/>
-      <c r="BA67" s="1"/>
-      <c r="BB67" s="1"/>
-      <c r="BC67" s="1"/>
-      <c r="BD67" s="1"/>
-      <c r="BE67" s="1"/>
-      <c r="BF67" s="1"/>
-      <c r="BG67" s="1"/>
-      <c r="BH67" s="1"/>
-      <c r="BI67" s="1"/>
-      <c r="BJ67" s="1"/>
-      <c r="BK67" s="1"/>
-      <c r="BL67" s="1"/>
-      <c r="BM67" s="1"/>
-      <c r="BN67" s="1"/>
-      <c r="BO67" s="1"/>
-      <c r="BP67" s="1"/>
-      <c r="BQ67" s="1"/>
-      <c r="BR67" s="1"/>
-      <c r="BS67" s="1"/>
-      <c r="BT67" s="1"/>
-      <c r="BU67" s="1"/>
-      <c r="BV67" s="1"/>
-      <c r="BW67" s="1"/>
-      <c r="BX67" s="1"/>
-      <c r="BY67" s="1"/>
-      <c r="BZ67" s="1"/>
-      <c r="CA67" s="1"/>
-      <c r="CB67" s="1"/>
-      <c r="CC67" s="1"/>
-      <c r="CD67" s="1"/>
-      <c r="CE67" s="1"/>
-      <c r="CF67" s="1"/>
-      <c r="CG67" s="1"/>
-      <c r="CH67" s="1"/>
-      <c r="CI67" s="1"/>
-      <c r="CJ67" s="1"/>
-      <c r="CK67" s="1"/>
-      <c r="CL67" s="1"/>
-      <c r="CM67" s="1"/>
-      <c r="CN67" s="1"/>
-      <c r="CO67" s="1"/>
-      <c r="CP67" s="1"/>
-      <c r="CQ67" s="1"/>
-      <c r="CR67" s="1"/>
-      <c r="CS67" s="1"/>
-      <c r="CT67" s="1"/>
-      <c r="CU67" s="1"/>
-      <c r="CV67" s="1"/>
-      <c r="CW67" s="1"/>
-      <c r="CX67" s="1"/>
-      <c r="CY67" s="1"/>
-      <c r="CZ67" s="1"/>
-      <c r="DA67" s="1"/>
-      <c r="DB67" s="1"/>
-      <c r="DC67" s="1"/>
-      <c r="DD67" s="1"/>
-      <c r="DE67" s="1"/>
-      <c r="DF67" s="1"/>
-      <c r="DG67" s="1"/>
-      <c r="DH67" s="1"/>
-      <c r="DI67" s="1"/>
-      <c r="DJ67" s="1"/>
-      <c r="DK67" s="1"/>
-      <c r="DL67" s="1"/>
-      <c r="DM67" s="1"/>
-      <c r="DN67" s="1"/>
-      <c r="DO67" s="1"/>
-      <c r="DP67" s="1"/>
-      <c r="DQ67" s="1"/>
-      <c r="DR67" s="1"/>
-    </row>
-    <row r="68" spans="1:122">
-      <c r="A68" s="113">
-        <v>61</v>
-      </c>
-      <c r="B68" s="114" t="s">
-        <v>239</v>
-      </c>
-      <c r="C68" s="115">
-        <v>1</v>
-      </c>
-      <c r="D68" s="116"/>
-      <c r="E68" s="117">
-        <f>Tabelle13[[#This Row],[*Qty]]*10</f>
-        <v>10</v>
-      </c>
-      <c r="F68" s="118" t="s">
-        <v>242</v>
-      </c>
-      <c r="G68" s="119" t="s">
-        <v>70</v>
-      </c>
-      <c r="H68" s="116"/>
-      <c r="I68" s="116"/>
-      <c r="J68" s="116"/>
-      <c r="K68" s="116"/>
-      <c r="L68" s="120"/>
-      <c r="M68" s="121" t="s">
-        <v>247</v>
-      </c>
-      <c r="N68" s="116">
-        <v>0.05</v>
-      </c>
-      <c r="O68" s="122">
-        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
-        <v>0.05</v>
-      </c>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
-      <c r="U68" s="7"/>
-      <c r="V68" s="7"/>
-      <c r="W68" s="7"/>
-      <c r="X68" s="7"/>
-      <c r="Y68" s="7"/>
-    </row>
-    <row r="69" spans="1:122">
-      <c r="A69" s="123">
-        <v>62</v>
-      </c>
-      <c r="B69" s="114" t="s">
-        <v>241</v>
-      </c>
-      <c r="C69" s="115">
-        <v>1</v>
-      </c>
-      <c r="D69" s="116"/>
-      <c r="E69" s="117">
-        <f>Tabelle13[[#This Row],[*Qty]]*10</f>
-        <v>10</v>
-      </c>
-      <c r="F69" s="118" t="s">
-        <v>243</v>
-      </c>
-      <c r="G69" s="119" t="s">
-        <v>244</v>
-      </c>
-      <c r="H69" s="116"/>
-      <c r="I69" s="116"/>
-      <c r="J69" s="116"/>
-      <c r="K69" s="116"/>
-      <c r="L69" s="124"/>
-      <c r="M69" s="116" t="s">
-        <v>248</v>
-      </c>
-      <c r="N69" s="116">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O69" s="122">
-        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:122">
-      <c r="A70" s="113">
+    <row r="67" spans="1:26">
+      <c r="A67" s="98">
         <v>63</v>
       </c>
-      <c r="B70" s="114" t="s">
+      <c r="B67" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C70" s="125">
+      <c r="C67" s="110">
         <v>2</v>
       </c>
-      <c r="D70" s="126"/>
-      <c r="E70" s="127">
+      <c r="D67" s="111"/>
+      <c r="E67" s="102">
         <f>Tabelle13[[#This Row],[*Qty]]*10</f>
         <v>20</v>
       </c>
-      <c r="F70" s="126" t="s">
+      <c r="F67" s="111" t="s">
         <v>245</v>
       </c>
-      <c r="G70" s="128" t="s">
+      <c r="G67" s="112" t="s">
         <v>246</v>
       </c>
-      <c r="H70" s="126"/>
-      <c r="I70" s="126"/>
-      <c r="J70" s="126"/>
-      <c r="K70" s="126"/>
-      <c r="L70" s="124"/>
-      <c r="M70" s="121" t="s">
+      <c r="H67" s="111"/>
+      <c r="I67" s="111"/>
+      <c r="J67" s="118">
+        <v>5.08</v>
+      </c>
+      <c r="K67" s="111" t="s">
+        <v>252</v>
+      </c>
+      <c r="L67" s="111">
+        <v>0.158</v>
+      </c>
+      <c r="M67" s="109">
+        <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Mouser Unit Price]]</f>
+        <v>0.316</v>
+      </c>
+      <c r="N67" s="106" t="s">
         <v>249</v>
       </c>
-      <c r="N70" s="126">
+      <c r="O67" s="111">
         <v>0.08</v>
       </c>
-      <c r="O70" s="129">
+      <c r="P67" s="111">
         <f>Tabelle13[[#This Row],[*Qty]]*Tabelle13[[#This Row],[Reichelt Unit Price]]</f>
         <v>0.16</v>
       </c>
-    </row>
-    <row r="71" spans="1:122">
-      <c r="A71" s="111"/>
-      <c r="B71" s="111"/>
-      <c r="C71" s="111"/>
-      <c r="D71" s="111"/>
-      <c r="E71" s="111"/>
-      <c r="F71" s="111"/>
-      <c r="G71" s="111"/>
-      <c r="H71" s="111"/>
-      <c r="I71" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31892,8 +32100,9 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
